--- a/Buoi2/1150080069_TranDuongYenNhi_lab2.xlsx
+++ b/Buoi2/1150080069_TranDuongYenNhi_lab2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Kiểm thử phần mềm\Buoi2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4674F566-C7AD-4A43-8AB0-41135F9EC30B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E840D8B-5884-466B-8826-372B6EC7CD91}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2920" yWindow="2920" windowWidth="19200" windowHeight="11170" activeTab="1" xr2:uid="{DAC611C8-81FB-4177-B3DD-E7E3F323AA7E}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="62">
   <si>
     <t>Test Case ID</t>
   </si>
@@ -158,13 +158,82 @@
   </si>
   <si>
     <t>TC04</t>
+  </si>
+  <si>
+    <t>BT_02</t>
+  </si>
+  <si>
+    <t>Kiểm thử xác thực trường nhập liệu (giới hạn 6-10 ký tự) sử dụng phân vùng tương đương</t>
+  </si>
+  <si>
+    <t>Kiểm thử các giá trị đại diện cho 3 vùng</t>
+  </si>
+  <si>
+    <t>Mở ứng dụng, vào màn hình nhập liệu</t>
+  </si>
+  <si>
+    <t>Chuỗi ngắn: "12345" (5 ký tự)</t>
+  </si>
+  <si>
+    <t>Chuỗi hợp lệ: "12345678" (8 ký tự)</t>
+  </si>
+  <si>
+    <t>Chuỗi dài: "12345678901" (11 ký tự)44</t>
+  </si>
+  <si>
+    <t>Test Conditions</t>
+  </si>
+  <si>
+    <t>Con trỏ chuột đặt tại ô Input</t>
+  </si>
+  <si>
+    <t>Step</t>
+  </si>
+  <si>
+    <t>Step Details</t>
+  </si>
+  <si>
+    <t>Expected Results</t>
+  </si>
+  <si>
+    <t>Actual Results</t>
+  </si>
+  <si>
+    <t>Pass/fail/ not exceted</t>
+  </si>
+  <si>
+    <t>Hệ thống hiển thị thông báo lỗi độ dài không hợp lệ.</t>
+  </si>
+  <si>
+    <t>Not executed</t>
+  </si>
+  <si>
+    <t>Độ dài không hợp lệ</t>
+  </si>
+  <si>
+    <t>Nhập chuỗi ký tự có độ dài &lt; 6 vào ô input. 
+(Dữ liệu: "12345")</t>
+  </si>
+  <si>
+    <t>Nhập chuỗi ký tự có độ dài trong khoảng 6-10.
+(Dữ liệu: "12345678")</t>
+  </si>
+  <si>
+    <t>Hệ thống chấp nhận dữ liệu, không báo lỗi.</t>
+  </si>
+  <si>
+    <t>Nhập chuỗi ký tự có độ dài &gt; 10 vào ô input.
+(Dữ liệu: "12345678901")</t>
+  </si>
+  <si>
+    <t>Hệ thống hiển thị lỗi hoặc tự động cắt chuỗi còn 10 ký tự.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -187,6 +256,14 @@
     </font>
     <font>
       <sz val="12"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <b/>
+      <u/>
+      <sz val="13"/>
       <color theme="1"/>
       <name val="Times New Roman"/>
       <family val="1"/>
@@ -270,9 +347,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="40">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -282,19 +362,13 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -350,6 +424,45 @@
     </xf>
     <xf numFmtId="9" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -667,8 +780,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4E558C95-9337-48C4-8168-B714331A7749}">
   <dimension ref="A1:K32"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B26" sqref="A1:XFD1048576"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A4" sqref="A4:E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.35"/>
@@ -685,161 +798,161 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2"/>
+      <c r="B1" s="3"/>
       <c r="C1" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E1" s="2"/>
-      <c r="F1" s="3" t="s">
+      <c r="E1" s="3"/>
+      <c r="F1" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="G1" s="3"/>
-      <c r="H1" s="3"/>
-      <c r="I1" s="3"/>
-      <c r="J1" s="3"/>
-      <c r="K1" s="3"/>
+      <c r="G1" s="4"/>
+      <c r="H1" s="4"/>
+      <c r="I1" s="4"/>
+      <c r="J1" s="4"/>
+      <c r="K1" s="4"/>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="2"/>
+      <c r="B2" s="3"/>
       <c r="C2" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="D2" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="E2" s="2"/>
-      <c r="F2" s="3" t="s">
+      <c r="E2" s="3"/>
+      <c r="F2" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="G2" s="3"/>
-      <c r="H2" s="2" t="s">
+      <c r="G2" s="4"/>
+      <c r="H2" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="I2" s="2"/>
-      <c r="J2" s="4">
+      <c r="I2" s="3"/>
+      <c r="J2" s="5">
         <v>1</v>
       </c>
-      <c r="K2" s="4"/>
+      <c r="K2" s="5"/>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A4" s="5" t="s">
+      <c r="A4" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B4" s="5"/>
-      <c r="C4" s="8" t="s">
+      <c r="B4" s="3"/>
+      <c r="C4" s="27" t="s">
         <v>9</v>
       </c>
-      <c r="D4" s="9"/>
-      <c r="E4" s="9"/>
+      <c r="D4" s="4"/>
+      <c r="E4" s="4"/>
     </row>
     <row r="6" spans="1:11" ht="33.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="2" t="s">
+      <c r="A6" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B6" s="2"/>
+      <c r="B6" s="3"/>
       <c r="C6" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="D6" s="2" t="s">
+      <c r="D6" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="E6" s="2"/>
-      <c r="F6" s="10">
+      <c r="E6" s="3"/>
+      <c r="F6" s="9">
         <v>46028</v>
       </c>
-      <c r="G6" s="10"/>
-      <c r="H6" s="12" t="s">
+      <c r="G6" s="9"/>
+      <c r="H6" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="I6" s="13"/>
-      <c r="J6" s="3" t="s">
+      <c r="I6" s="12"/>
+      <c r="J6" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="K6" s="3"/>
+      <c r="K6" s="4"/>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A8" s="18" t="s">
+      <c r="A8" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="B8" s="21" t="s">
+      <c r="B8" s="20" t="s">
         <v>15</v>
       </c>
-      <c r="C8" s="21"/>
-      <c r="D8" s="21"/>
-      <c r="F8" s="18" t="s">
+      <c r="C8" s="20"/>
+      <c r="D8" s="20"/>
+      <c r="F8" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="G8" s="21" t="s">
+      <c r="G8" s="20" t="s">
         <v>18</v>
       </c>
-      <c r="H8" s="4"/>
-      <c r="I8" s="4"/>
+      <c r="H8" s="5"/>
+      <c r="I8" s="5"/>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A9" s="14">
+      <c r="A9" s="13">
         <v>1</v>
       </c>
-      <c r="B9" s="4" t="s">
+      <c r="B9" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="C9" s="4"/>
-      <c r="D9" s="4"/>
-      <c r="F9" s="14">
+      <c r="C9" s="5"/>
+      <c r="D9" s="5"/>
+      <c r="F9" s="13">
         <v>1</v>
       </c>
-      <c r="G9" s="4" t="s">
+      <c r="G9" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="H9" s="4"/>
-      <c r="I9" s="4"/>
+      <c r="H9" s="5"/>
+      <c r="I9" s="5"/>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A10" s="14"/>
-      <c r="B10" s="4"/>
-      <c r="C10" s="4"/>
-      <c r="D10" s="4"/>
-      <c r="F10" s="14">
+      <c r="A10" s="13"/>
+      <c r="B10" s="5"/>
+      <c r="C10" s="5"/>
+      <c r="D10" s="5"/>
+      <c r="F10" s="13">
         <v>2</v>
       </c>
-      <c r="G10" s="4" t="s">
+      <c r="G10" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="H10" s="4"/>
-      <c r="I10" s="4"/>
+      <c r="H10" s="5"/>
+      <c r="I10" s="5"/>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A11" s="20"/>
-      <c r="B11" s="20"/>
-      <c r="D11" s="20"/>
-      <c r="E11" s="19"/>
-      <c r="F11" s="20"/>
-      <c r="G11" s="20"/>
-      <c r="H11" s="20"/>
+      <c r="A11" s="19"/>
+      <c r="B11" s="19"/>
+      <c r="D11" s="19"/>
+      <c r="E11" s="18"/>
+      <c r="F11" s="19"/>
+      <c r="G11" s="19"/>
+      <c r="H11" s="19"/>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A12" s="20"/>
-      <c r="B12" s="20"/>
-      <c r="C12" s="22" t="s">
+      <c r="A12" s="19"/>
+      <c r="B12" s="19"/>
+      <c r="C12" s="21" t="s">
         <v>21</v>
       </c>
-      <c r="D12" s="20" t="s">
+      <c r="D12" s="19" t="s">
         <v>22</v>
       </c>
-      <c r="F12" s="20"/>
-      <c r="G12" s="20"/>
-      <c r="H12" s="20"/>
+      <c r="F12" s="19"/>
+      <c r="G12" s="19"/>
+      <c r="H12" s="19"/>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="C13" s="23" t="s">
+      <c r="C13" s="22" t="s">
         <v>26</v>
       </c>
       <c r="D13" s="7" t="s">
@@ -847,7 +960,7 @@
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="C14" s="23" t="s">
+      <c r="C14" s="22" t="s">
         <v>27</v>
       </c>
       <c r="D14" s="7" t="s">
@@ -855,7 +968,7 @@
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="C15" s="23" t="s">
+      <c r="C15" s="22" t="s">
         <v>28</v>
       </c>
       <c r="D15" s="7" t="s">
@@ -863,16 +976,16 @@
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A17" s="11" t="s">
+      <c r="A17" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="B17" s="15"/>
-      <c r="C17" s="16"/>
-      <c r="D17" s="17"/>
-      <c r="E17" s="11" t="s">
+      <c r="B17" s="14"/>
+      <c r="C17" s="15"/>
+      <c r="D17" s="16"/>
+      <c r="E17" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="F17" s="11" t="s">
+      <c r="F17" s="10" t="s">
         <v>31</v>
       </c>
     </row>
@@ -880,12 +993,12 @@
       <c r="A18" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="B18" s="25" t="s">
+      <c r="B18" s="24" t="s">
         <v>33</v>
       </c>
-      <c r="C18" s="25"/>
-      <c r="D18" s="25"/>
-      <c r="E18" s="26">
+      <c r="C18" s="24"/>
+      <c r="D18" s="24"/>
+      <c r="E18" s="25">
         <v>0</v>
       </c>
       <c r="F18" s="6" t="s">
@@ -896,15 +1009,15 @@
       <c r="A19" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="B19" s="4" t="s">
+      <c r="B19" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="C19" s="4"/>
-      <c r="D19" s="4"/>
-      <c r="E19" s="26">
+      <c r="C19" s="5"/>
+      <c r="D19" s="5"/>
+      <c r="E19" s="25">
         <v>50</v>
       </c>
-      <c r="F19" s="27">
+      <c r="F19" s="26">
         <v>0.03</v>
       </c>
     </row>
@@ -912,15 +1025,15 @@
       <c r="A20" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="B20" s="4" t="s">
+      <c r="B20" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="C20" s="4"/>
-      <c r="D20" s="4"/>
+      <c r="C20" s="5"/>
+      <c r="D20" s="5"/>
       <c r="E20" s="1">
         <v>500</v>
       </c>
-      <c r="F20" s="27">
+      <c r="F20" s="26">
         <v>0.05</v>
       </c>
     </row>
@@ -928,50 +1041,50 @@
       <c r="A21" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="B21" s="4" t="s">
+      <c r="B21" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="C21" s="4"/>
-      <c r="D21" s="4"/>
-      <c r="E21" s="26">
+      <c r="C21" s="5"/>
+      <c r="D21" s="5"/>
+      <c r="E21" s="25">
         <v>1500</v>
       </c>
-      <c r="F21" s="27">
+      <c r="F21" s="26">
         <v>7.0000000000000007E-2</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="E22" s="24"/>
+      <c r="E22" s="23"/>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="E23" s="24"/>
+      <c r="E23" s="23"/>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="E24" s="24"/>
+      <c r="E24" s="23"/>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="E25" s="24"/>
+      <c r="E25" s="23"/>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="E26" s="24"/>
+      <c r="E26" s="23"/>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="E27" s="24"/>
+      <c r="E27" s="23"/>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="E28" s="24"/>
+      <c r="E28" s="23"/>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="E29" s="24"/>
+      <c r="E29" s="23"/>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="E30" s="24"/>
+      <c r="E30" s="23"/>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="E31" s="24"/>
+      <c r="E31" s="23"/>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="E32" s="24"/>
+      <c r="E32" s="23"/>
     </row>
   </sheetData>
   <mergeCells count="26">
@@ -1011,319 +1124,322 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AD16DCAF-98CB-44E3-90A4-81A70F134445}">
   <dimension ref="A1:K32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+    <sheetView tabSelected="1" topLeftCell="D14" workbookViewId="0">
+      <selection activeCell="E27" sqref="E27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="8.7265625" style="7"/>
     <col min="2" max="2" width="10.7265625" style="7" customWidth="1"/>
     <col min="3" max="3" width="14.453125" style="7" customWidth="1"/>
     <col min="4" max="4" width="23.1796875" style="7" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="42.7265625" style="7" customWidth="1"/>
-    <col min="6" max="6" width="9.36328125" style="7" bestFit="1" customWidth="1"/>
-    <col min="7" max="10" width="8.7265625" style="7"/>
+    <col min="6" max="6" width="16.08984375" style="7" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="22.7265625" style="7" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="8.7265625" style="7"/>
+    <col min="9" max="9" width="16.7265625" style="7" customWidth="1"/>
+    <col min="10" max="10" width="8.7265625" style="7"/>
     <col min="11" max="11" width="13.1796875" style="7" customWidth="1"/>
     <col min="12" max="16384" width="8.7265625" style="7"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2"/>
+      <c r="B1" s="3"/>
       <c r="C1" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="D1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E1" s="2"/>
-      <c r="F1" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="G1" s="3"/>
-      <c r="H1" s="3"/>
-      <c r="I1" s="3"/>
-      <c r="J1" s="3"/>
-      <c r="K1" s="3"/>
-    </row>
-    <row r="2" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A2" s="2" t="s">
+      <c r="E1" s="3"/>
+      <c r="F1" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="G1" s="4"/>
+      <c r="H1" s="4"/>
+      <c r="I1" s="4"/>
+      <c r="J1" s="4"/>
+      <c r="K1" s="4"/>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A2" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="2"/>
+      <c r="B2" s="3"/>
       <c r="C2" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="D2" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="E2" s="2"/>
-      <c r="F2" s="3" t="s">
+      <c r="E2" s="3"/>
+      <c r="F2" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="G2" s="3"/>
-      <c r="H2" s="2" t="s">
+      <c r="G2" s="4"/>
+      <c r="H2" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="I2" s="2"/>
-      <c r="J2" s="4">
+      <c r="I2" s="3"/>
+      <c r="J2" s="5">
         <v>1</v>
       </c>
-      <c r="K2" s="4"/>
-    </row>
-    <row r="4" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A4" s="5" t="s">
+      <c r="K2" s="5"/>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A4" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="B4" s="5"/>
-      <c r="C4" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="D4" s="9"/>
-      <c r="E4" s="9"/>
+      <c r="B4" s="8"/>
+      <c r="C4" s="27" t="s">
+        <v>42</v>
+      </c>
+      <c r="D4" s="4"/>
+      <c r="E4" s="4"/>
     </row>
     <row r="6" spans="1:11" ht="33.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="2" t="s">
+      <c r="A6" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B6" s="2"/>
+      <c r="B6" s="3"/>
       <c r="C6" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="D6" s="2" t="s">
+      <c r="D6" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="E6" s="2"/>
-      <c r="F6" s="10">
+      <c r="E6" s="3"/>
+      <c r="F6" s="9">
         <v>46028</v>
       </c>
-      <c r="G6" s="10"/>
-      <c r="H6" s="12" t="s">
+      <c r="G6" s="9"/>
+      <c r="H6" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="I6" s="13"/>
-      <c r="J6" s="3" t="s">
+      <c r="I6" s="12"/>
+      <c r="J6" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="K6" s="3"/>
-    </row>
-    <row r="8" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A8" s="18" t="s">
+      <c r="K6" s="4"/>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A8" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="B8" s="21" t="s">
+      <c r="B8" s="28" t="s">
         <v>15</v>
       </c>
-      <c r="C8" s="21"/>
-      <c r="D8" s="21"/>
-      <c r="F8" s="18" t="s">
+      <c r="C8" s="28"/>
+      <c r="D8" s="28"/>
+      <c r="F8" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="G8" s="21" t="s">
+      <c r="G8" s="20" t="s">
         <v>18</v>
       </c>
-      <c r="H8" s="4"/>
-      <c r="I8" s="4"/>
-    </row>
-    <row r="9" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A9" s="14">
+      <c r="H8" s="5"/>
+      <c r="I8" s="5"/>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A9" s="13">
         <v>1</v>
       </c>
-      <c r="B9" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="C9" s="4"/>
-      <c r="D9" s="4"/>
-      <c r="F9" s="14">
+      <c r="B9" s="29" t="s">
+        <v>43</v>
+      </c>
+      <c r="C9" s="29"/>
+      <c r="D9" s="29"/>
+      <c r="F9" s="13">
         <v>1</v>
       </c>
       <c r="G9" s="4" t="s">
-        <v>16</v>
+        <v>44</v>
       </c>
       <c r="H9" s="4"/>
       <c r="I9" s="4"/>
     </row>
-    <row r="10" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A10" s="14"/>
-      <c r="B10" s="4"/>
-      <c r="C10" s="4"/>
-      <c r="D10" s="4"/>
-      <c r="F10" s="14">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A10" s="13">
         <v>2</v>
       </c>
+      <c r="B10" s="29" t="s">
+        <v>48</v>
+      </c>
+      <c r="C10" s="29"/>
+      <c r="D10" s="29"/>
+      <c r="F10" s="13">
+        <v>2</v>
+      </c>
       <c r="G10" s="4" t="s">
-        <v>17</v>
+        <v>45</v>
       </c>
       <c r="H10" s="4"/>
       <c r="I10" s="4"/>
     </row>
-    <row r="11" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A11" s="20"/>
-      <c r="B11" s="20"/>
-      <c r="D11" s="20"/>
-      <c r="E11" s="19"/>
-      <c r="F11" s="20"/>
-      <c r="G11" s="20"/>
-      <c r="H11" s="20"/>
-    </row>
-    <row r="12" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A12" s="20"/>
-      <c r="B12" s="20"/>
-      <c r="C12" s="22" t="s">
-        <v>21</v>
-      </c>
-      <c r="D12" s="20" t="s">
-        <v>22</v>
-      </c>
-      <c r="F12" s="20"/>
-      <c r="G12" s="20"/>
-      <c r="H12" s="20"/>
-    </row>
-    <row r="13" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="C13" s="23" t="s">
-        <v>26</v>
-      </c>
-      <c r="D13" s="7" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="C14" s="23" t="s">
-        <v>27</v>
-      </c>
-      <c r="D14" s="7" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="C15" s="23" t="s">
-        <v>28</v>
-      </c>
-      <c r="D15" s="7" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A17" s="11" t="s">
-        <v>29</v>
-      </c>
-      <c r="B17" s="15"/>
-      <c r="C17" s="16"/>
-      <c r="D17" s="17"/>
-      <c r="E17" s="11" t="s">
-        <v>30</v>
-      </c>
-      <c r="F17" s="11" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" ht="34.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="B18" s="25" t="s">
-        <v>33</v>
-      </c>
-      <c r="C18" s="25"/>
-      <c r="D18" s="25"/>
-      <c r="E18" s="26">
-        <v>0</v>
-      </c>
-      <c r="F18" s="6" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A19" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="B19" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="C19" s="4"/>
-      <c r="D19" s="4"/>
-      <c r="E19" s="26">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A11" s="19"/>
+      <c r="B11" s="19"/>
+      <c r="D11" s="19"/>
+      <c r="E11" s="18"/>
+      <c r="F11" s="13">
+        <v>3</v>
+      </c>
+      <c r="G11" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="H11" s="4"/>
+      <c r="I11" s="4"/>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A12" s="19"/>
+      <c r="B12" s="19"/>
+      <c r="C12" s="21"/>
+      <c r="D12" s="19"/>
+      <c r="F12" s="19"/>
+      <c r="G12" s="19"/>
+      <c r="H12" s="19"/>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="C13" s="22"/>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="C14" s="22"/>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A15" s="30" t="s">
+        <v>47</v>
+      </c>
+      <c r="B15" s="2"/>
+      <c r="C15" s="22"/>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A17" s="10" t="s">
+        <v>49</v>
+      </c>
+      <c r="B17" s="14" t="s">
         <v>50</v>
       </c>
-      <c r="F19" s="27">
-        <v>0.03</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A20" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="B20" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="C20" s="4"/>
-      <c r="D20" s="4"/>
-      <c r="E20" s="1">
-        <v>500</v>
-      </c>
-      <c r="F20" s="27">
-        <v>0.05</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A21" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="B21" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="C21" s="4"/>
-      <c r="D21" s="4"/>
-      <c r="E21" s="26">
-        <v>1500</v>
-      </c>
-      <c r="F21" s="27">
-        <v>7.0000000000000007E-2</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="E22" s="24"/>
-    </row>
-    <row r="23" spans="1:6" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="E23" s="24"/>
-    </row>
-    <row r="24" spans="1:6" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="E24" s="24"/>
-    </row>
-    <row r="25" spans="1:6" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="E25" s="24"/>
-    </row>
-    <row r="26" spans="1:6" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="E26" s="24"/>
-    </row>
-    <row r="27" spans="1:6" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="E27" s="24"/>
-    </row>
-    <row r="28" spans="1:6" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="E28" s="24"/>
-    </row>
-    <row r="29" spans="1:6" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="E29" s="24"/>
-    </row>
-    <row r="30" spans="1:6" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="E30" s="24"/>
-    </row>
-    <row r="31" spans="1:6" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="E31" s="24"/>
-    </row>
-    <row r="32" spans="1:6" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="E32" s="24"/>
+      <c r="C17" s="15"/>
+      <c r="D17" s="16"/>
+      <c r="E17" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="F17" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="G17" s="10" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" ht="34.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A18" s="31">
+        <v>1</v>
+      </c>
+      <c r="B18" s="35" t="s">
+        <v>57</v>
+      </c>
+      <c r="C18" s="36"/>
+      <c r="D18" s="37"/>
+      <c r="E18" s="38" t="s">
+        <v>54</v>
+      </c>
+      <c r="F18" s="33" t="s">
+        <v>56</v>
+      </c>
+      <c r="G18" s="33" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" ht="34" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A19" s="31">
+        <v>2</v>
+      </c>
+      <c r="B19" s="35" t="s">
+        <v>58</v>
+      </c>
+      <c r="C19" s="36"/>
+      <c r="D19" s="37"/>
+      <c r="E19" s="38" t="s">
+        <v>59</v>
+      </c>
+      <c r="F19" s="34"/>
+      <c r="G19" s="33" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" ht="33" x14ac:dyDescent="0.35">
+      <c r="A20" s="31">
+        <v>3</v>
+      </c>
+      <c r="B20" s="35" t="s">
+        <v>60</v>
+      </c>
+      <c r="C20" s="36"/>
+      <c r="D20" s="37"/>
+      <c r="E20" s="39" t="s">
+        <v>61</v>
+      </c>
+      <c r="F20" s="34"/>
+      <c r="G20" s="33" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A21" s="31"/>
+      <c r="B21" s="35"/>
+      <c r="C21" s="36"/>
+      <c r="D21" s="37"/>
+      <c r="E21" s="38"/>
+      <c r="F21" s="34"/>
+      <c r="G21" s="33"/>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A22" s="32"/>
+      <c r="E22" s="23"/>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="E23" s="23"/>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="E24" s="23"/>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="E25" s="23"/>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="E26" s="23"/>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="E27" s="23"/>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="E28" s="23"/>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="E29" s="23"/>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="E30" s="23"/>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="E31" s="23"/>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="E32" s="23"/>
     </row>
   </sheetData>
-  <mergeCells count="26">
+  <mergeCells count="28">
     <mergeCell ref="B17:D17"/>
     <mergeCell ref="B18:D18"/>
     <mergeCell ref="B19:D19"/>
     <mergeCell ref="B20:D20"/>
     <mergeCell ref="B21:D21"/>
+    <mergeCell ref="G11:I11"/>
+    <mergeCell ref="A15:B15"/>
     <mergeCell ref="J6:K6"/>
     <mergeCell ref="B8:D8"/>
     <mergeCell ref="G8:I8"/>

--- a/Buoi2/1150080069_TranDuongYenNhi_lab2.xlsx
+++ b/Buoi2/1150080069_TranDuongYenNhi_lab2.xlsx
@@ -8,13 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Kiểm thử phần mềm\Buoi2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E840D8B-5884-466B-8826-372B6EC7CD91}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5200DA45-907A-4BB6-A5F3-79E13A87978B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2920" yWindow="2920" windowWidth="19200" windowHeight="11170" activeTab="1" xr2:uid="{DAC611C8-81FB-4177-B3DD-E7E3F323AA7E}"/>
+    <workbookView xWindow="2920" yWindow="2920" windowWidth="19200" windowHeight="11170" activeTab="4" xr2:uid="{DAC611C8-81FB-4177-B3DD-E7E3F323AA7E}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="B2_lab2_bai1" sheetId="1" r:id="rId1"/>
+    <sheet name="B2_lab2_bai2" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="B3_VD" sheetId="4" r:id="rId4"/>
+    <sheet name="3_bai1" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -38,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="245" uniqueCount="153">
   <si>
     <t>Test Case ID</t>
   </si>
@@ -227,13 +230,328 @@
   </si>
   <si>
     <t>Hệ thống hiển thị lỗi hoặc tự động cắt chuỗi còn 10 ký tự.</t>
+  </si>
+  <si>
+    <t>Bài 1: Kiểm thử trường nhập điểm thi. Giả sử bạn có một hệ thống nhập điểm thi với phạm vi điểm từ 0 đến 100.</t>
+  </si>
+  <si>
+    <t>Kỹ thuật kiểm thử giá trị biên mạnh:</t>
+  </si>
+  <si>
+    <t>Kết hợp kỹ thuật phân vùng tương đương</t>
+  </si>
+  <si>
+    <t>Xmin- = 0-1=-1</t>
+  </si>
+  <si>
+    <t>1. Tiêu chí chữ/số chia 2 vùng:</t>
+  </si>
+  <si>
+    <t>Xmin = 0</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">* Vùng 1: Nhập chữ </t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>(chưa có trong case kỹ thuật biên)</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">Xmin+ = 0+1=1 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">* vùng 2: Nhập số </t>
+  </si>
+  <si>
+    <t>Xmax-= 100-1=99</t>
+  </si>
+  <si>
+    <t>2. Tiêu chí nguyên/không nguyên, chia thành 2 vùng</t>
+  </si>
+  <si>
+    <t>Xmax= 100</t>
+  </si>
+  <si>
+    <t>* Vùng 1: Là số nguyên (chia thành 3 vùng)</t>
+  </si>
+  <si>
+    <t>Xmax+=100+1=101</t>
+  </si>
+  <si>
+    <t>* Vùng 2: Không nguyên  (chưa có trong case kỹ thuật biên)</t>
+  </si>
+  <si>
+    <t>Xnom= 50</t>
+  </si>
+  <si>
+    <t>3. Tiêu chí Khoảng giá trị (Range) chia 3 vùng:</t>
+  </si>
+  <si>
+    <t>* Vùng 1 các số nguyên trong đoạn: [0, 100]</t>
+  </si>
+  <si>
+    <t>* Vùng 2 các số nguyên &lt; 0</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> * Vùng 3: các số nguyên &gt;100</t>
+  </si>
+  <si>
+    <t>Tổng số testcasse: 7 kỹ thuật biên + 2 phân lớp tương đương = 9 testcase</t>
+  </si>
+  <si>
+    <t>Kiểm thử toàn diện trường nhập điểm thi (Range, Type, Format) sử dụng Phân vùng tương đương &amp; Giá trị biên.</t>
+  </si>
+  <si>
+    <t>Đã bao gồm test: Giá trị biên, Số âm, Chữ cái, Ký tự đặc biệt, Số thập phân.</t>
+  </si>
+  <si>
+    <t>Mở ứng dụng, vào màn hình nhập điểm</t>
+  </si>
+  <si>
+    <t>Tiêu chí Range: -1, 0, 50, 100, 101</t>
+  </si>
+  <si>
+    <t>Tiêu chí chữ/số:  "Toán", "@#$"</t>
+  </si>
+  <si>
+    <t>Tiêu chí Format: 8.5 (Số thập phân)</t>
+  </si>
+  <si>
+    <t>Tiêu chí Null: (Để trống)</t>
+  </si>
+  <si>
+    <t>Kịch bản kiểm thử</t>
+  </si>
+  <si>
+    <t>Các bước kiểm thử</t>
+  </si>
+  <si>
+    <t>Dữ liệu Kiểm thử</t>
+  </si>
+  <si>
+    <t>Kết quả dự kiến</t>
+  </si>
+  <si>
+    <t>Kết quả thực tế</t>
+  </si>
+  <si>
+    <t>Pass/Fail</t>
+  </si>
+  <si>
+    <t>Kiểm thử nhập điểm với các giá trị HỢP LỆ (Biên &amp; Vùng giữa)</t>
+  </si>
+  <si>
+    <t>Bước 1: Truy cập màn hình nhập điểm.</t>
+  </si>
+  <si>
+    <t>- Biên dưới: 0</t>
+  </si>
+  <si>
+    <t>Hệ thống chấp nhận giá trị. Lưu thành công và không báo lỗi.</t>
+  </si>
+  <si>
+    <t>(Chưa chạy)</t>
+  </si>
+  <si>
+    <t>(Trống)</t>
+  </si>
+  <si>
+    <t>Bước 2: Nhập giá trị điểm vào ô.</t>
+  </si>
+  <si>
+    <t>- Vùng giữa: 50</t>
+  </si>
+  <si>
+    <t>Bước 3: Nhấn nút Lưu/Enter.</t>
+  </si>
+  <si>
+    <t>- Biên trên: 100</t>
+  </si>
+  <si>
+    <t>Kiểm thử nhập điểm với giá trị KHÔNG HỢP LỆ (Sai vùng giá trị)</t>
+  </si>
+  <si>
+    <t>- Dưới biên: -1</t>
+  </si>
+  <si>
+    <t>Hệ thống không lưu.</t>
+  </si>
+  <si>
+    <t>- Trên biên: 101</t>
+  </si>
+  <si>
+    <t>Hiển thị thông báo lỗi: "Điểm phải nằm trong khoảng từ 0 đến 100".</t>
+  </si>
+  <si>
+    <t>Kiểm thử nhập điểm với định dạng SAI (Sai kiểu dữ liệu)</t>
+  </si>
+  <si>
+    <t>- Chữ cái: "muoi"</t>
+  </si>
+  <si>
+    <t>Bước 2: Nhập các ký tự không phải số.</t>
+  </si>
+  <si>
+    <t>- Ký tự đặc biệt: "@#$"</t>
+  </si>
+  <si>
+    <t>Hiển thị thông báo lỗi: "Vui lòng chỉ nhập số".</t>
+  </si>
+  <si>
+    <t>Kiểm thử nhập điểm với giá trị RỖNG (Bắt buộc nhập)</t>
+  </si>
+  <si>
+    <t>- Dữ liệu: [Null] (Không nhập gì)</t>
+  </si>
+  <si>
+    <t>Bước 2: Để trống ô điểm.</t>
+  </si>
+  <si>
+    <t>Hiển thị thông báo lỗi: "Trường điểm thi là bắt buộc".</t>
+  </si>
+  <si>
+    <t>Ví dụ 2:
+· Một cửa hàng sách áp dụng các chương trình khuyến mại cho khách hàng như
+sau
+V Nếu mua hàng vào ngày sinh nhật sẽ được giảm 20% trên hóa đơn.
+V Nếu có thẻ khách hàng thân thiết sẽ giảm 15% trên hóa đơn
+V Với đơn hàng &gt; 2triệu sẽ giảm 30% trên hóa đơn. Không áp dụng đồng thời
+các chương trình khuyến mại, nếu có nhiều ưu đãi áp dụng ưu đãi cao nhất.
+· Lập bảng quyết định cho bài toán nói trên.</t>
+  </si>
+  <si>
+    <t>Các điều kiện: Mua vào ngày sinh nhật &amp; có thẻ khách hàng thân thiết &amp; đơn &gt;2 triệu</t>
+  </si>
+  <si>
+    <t>Hành động của cửa hàng: giảm 20%, giảm 15%, giảm 30%</t>
+  </si>
+  <si>
+    <t>Do có 3 điều kiện đầu vào nên tổng số rules= 2^3 =8</t>
+  </si>
+  <si>
+    <t>Điều kiện</t>
+  </si>
+  <si>
+    <t>R1</t>
+  </si>
+  <si>
+    <t>R2</t>
+  </si>
+  <si>
+    <t>R3</t>
+  </si>
+  <si>
+    <t>R4</t>
+  </si>
+  <si>
+    <t>R5</t>
+  </si>
+  <si>
+    <t>R6</t>
+  </si>
+  <si>
+    <t>R7</t>
+  </si>
+  <si>
+    <t>F</t>
+  </si>
+  <si>
+    <t>T</t>
+  </si>
+  <si>
+    <t>Hành động</t>
+  </si>
+  <si>
+    <t>x</t>
+  </si>
+  <si>
+    <t>R8</t>
+  </si>
+  <si>
+    <t>Sinh nhật</t>
+  </si>
+  <si>
+    <t>Thẻ KHTT</t>
+  </si>
+  <si>
+    <t>Đơn &gt; 2 triệu</t>
+  </si>
+  <si>
+    <t>Giảm 30%</t>
+  </si>
+  <si>
+    <t>Giảm 20%</t>
+  </si>
+  <si>
+    <t>Giảm 15%</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Không giảm (0%)</t>
+  </si>
+  <si>
+    <t>Vì điều kiện của cửa hàng là áp dụng mã cao nhất nên sẽ rút gọn như sau:</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Nhóm giảm 30% (R2,R4,R6,R8): điề kiện chỉ cần Đơn hàng&gt;2 triệu là T, thì bất kể có điều kiện Sinh nhật hay thẻ là T hay F thì kết quả vẫn áp dựng giảm 30% nên =&gt; giữ R8</t>
+  </si>
+  <si>
+    <t>Nhóm giảm 20%( R5,R7): chỉ cần áp ựng điều kiện khách hàng thân thiết là được</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>Đề bài: Cửa hàng bánh sinh nhật</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">
+Điều kiện 1: Khách hàng mới -&gt; Giảm 15%.
+Điều kiện 2: Thẻ khách hàng thân thiết -&gt; Giảm 10%.
+Điều kiện 3: Phiếu giảm giá -&gt; Giảm 20%.
+Ràng buộc: Phiếu giảm giá (20%) KHÔNG áp dụng cho khách hàng mới (chỉ áp dụng cho khách cũ).
+Quy tắc ngầm hiểu: Nếu có nhiều mức giảm giá, thường sẽ áp dụng mức cao nhất (hoặc theo quy định loại trừ). Ở đây ta ưu tiên lợi ích cao nhất hợp lệ cho khách.</t>
+    </r>
+  </si>
+  <si>
+    <t>PHƯƠNG PHÁP 1: PHÂN VÙNG TƯƠNG ĐƯƠNG &amp; GIÁ TRỊ BIÊN</t>
+  </si>
+  <si>
+    <t>Xác định lớp tương đương</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. khách hàng mới: giảm 15% </t>
+  </si>
+  <si>
+    <t>2. khách hàng cũ: giảm 10% hoặc phiếu 20%</t>
+  </si>
+  <si>
+    <t>Theo loại khách hàng</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -268,8 +586,49 @@
       <name val="Times New Roman"/>
       <family val="1"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF1F1F1F"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF1F1F1F"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -279,6 +638,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-4.9989318521683403E-2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -347,122 +712,208 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="40">
+  <cellXfs count="70">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -786,211 +1237,211 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="8.7265625" style="7"/>
-    <col min="2" max="2" width="10.7265625" style="7" customWidth="1"/>
-    <col min="3" max="3" width="14.453125" style="7" customWidth="1"/>
-    <col min="4" max="4" width="23.1796875" style="7" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="42.7265625" style="7" customWidth="1"/>
-    <col min="6" max="6" width="9.36328125" style="7" bestFit="1" customWidth="1"/>
-    <col min="7" max="10" width="8.7265625" style="7"/>
-    <col min="11" max="11" width="13.1796875" style="7" customWidth="1"/>
-    <col min="12" max="16384" width="8.7265625" style="7"/>
+    <col min="1" max="1" width="8.7265625" style="4"/>
+    <col min="2" max="2" width="10.7265625" style="4" customWidth="1"/>
+    <col min="3" max="3" width="14.453125" style="4" customWidth="1"/>
+    <col min="4" max="4" width="23.1796875" style="4" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="42.7265625" style="4" customWidth="1"/>
+    <col min="6" max="6" width="9.36328125" style="4" bestFit="1" customWidth="1"/>
+    <col min="7" max="10" width="8.7265625" style="4"/>
+    <col min="11" max="11" width="13.1796875" style="4" customWidth="1"/>
+    <col min="12" max="16384" width="8.7265625" style="4"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="31" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3"/>
-      <c r="C1" s="6" t="s">
+      <c r="B1" s="31"/>
+      <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="31" t="s">
         <v>4</v>
       </c>
-      <c r="E1" s="3"/>
-      <c r="F1" s="4" t="s">
+      <c r="E1" s="31"/>
+      <c r="F1" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="G1" s="4"/>
-      <c r="H1" s="4"/>
-      <c r="I1" s="4"/>
-      <c r="J1" s="4"/>
-      <c r="K1" s="4"/>
+      <c r="G1" s="29"/>
+      <c r="H1" s="29"/>
+      <c r="I1" s="29"/>
+      <c r="J1" s="29"/>
+      <c r="K1" s="29"/>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="31" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="3"/>
-      <c r="C2" s="6" t="s">
+      <c r="B2" s="31"/>
+      <c r="C2" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="D2" s="31" t="s">
         <v>5</v>
       </c>
-      <c r="E2" s="3"/>
-      <c r="F2" s="4" t="s">
+      <c r="E2" s="31"/>
+      <c r="F2" s="29" t="s">
         <v>6</v>
       </c>
-      <c r="G2" s="4"/>
-      <c r="H2" s="3" t="s">
+      <c r="G2" s="29"/>
+      <c r="H2" s="31" t="s">
         <v>7</v>
       </c>
-      <c r="I2" s="3"/>
-      <c r="J2" s="5">
+      <c r="I2" s="31"/>
+      <c r="J2" s="25">
         <v>1</v>
       </c>
-      <c r="K2" s="5"/>
+      <c r="K2" s="25"/>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A4" s="3" t="s">
+      <c r="A4" s="31" t="s">
         <v>8</v>
       </c>
-      <c r="B4" s="3"/>
-      <c r="C4" s="27" t="s">
+      <c r="B4" s="31"/>
+      <c r="C4" s="32" t="s">
         <v>9</v>
       </c>
-      <c r="D4" s="4"/>
-      <c r="E4" s="4"/>
+      <c r="D4" s="29"/>
+      <c r="E4" s="29"/>
     </row>
     <row r="6" spans="1:11" ht="33.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="3" t="s">
+      <c r="A6" s="31" t="s">
         <v>10</v>
       </c>
-      <c r="B6" s="3"/>
-      <c r="C6" s="6" t="s">
+      <c r="B6" s="31"/>
+      <c r="C6" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="D6" s="3" t="s">
+      <c r="D6" s="31" t="s">
         <v>11</v>
       </c>
-      <c r="E6" s="3"/>
-      <c r="F6" s="9">
+      <c r="E6" s="31"/>
+      <c r="F6" s="33">
         <v>46028</v>
       </c>
-      <c r="G6" s="9"/>
-      <c r="H6" s="11" t="s">
+      <c r="G6" s="33"/>
+      <c r="H6" s="34" t="s">
         <v>12</v>
       </c>
-      <c r="I6" s="12"/>
-      <c r="J6" s="4" t="s">
+      <c r="I6" s="35"/>
+      <c r="J6" s="29" t="s">
         <v>13</v>
       </c>
-      <c r="K6" s="4"/>
+      <c r="K6" s="29"/>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A8" s="17" t="s">
+      <c r="A8" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="B8" s="20" t="s">
+      <c r="B8" s="30" t="s">
         <v>15</v>
       </c>
-      <c r="C8" s="20"/>
-      <c r="D8" s="20"/>
-      <c r="F8" s="17" t="s">
+      <c r="C8" s="30"/>
+      <c r="D8" s="30"/>
+      <c r="F8" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="G8" s="20" t="s">
+      <c r="G8" s="30" t="s">
         <v>18</v>
       </c>
-      <c r="H8" s="5"/>
-      <c r="I8" s="5"/>
+      <c r="H8" s="25"/>
+      <c r="I8" s="25"/>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A9" s="13">
+      <c r="A9" s="6">
         <v>1</v>
       </c>
-      <c r="B9" s="5" t="s">
+      <c r="B9" s="25" t="s">
         <v>19</v>
       </c>
-      <c r="C9" s="5"/>
-      <c r="D9" s="5"/>
-      <c r="F9" s="13">
+      <c r="C9" s="25"/>
+      <c r="D9" s="25"/>
+      <c r="F9" s="6">
         <v>1</v>
       </c>
-      <c r="G9" s="5" t="s">
+      <c r="G9" s="25" t="s">
         <v>16</v>
       </c>
-      <c r="H9" s="5"/>
-      <c r="I9" s="5"/>
+      <c r="H9" s="25"/>
+      <c r="I9" s="25"/>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A10" s="13"/>
-      <c r="B10" s="5"/>
-      <c r="C10" s="5"/>
-      <c r="D10" s="5"/>
-      <c r="F10" s="13">
+      <c r="A10" s="6"/>
+      <c r="B10" s="25"/>
+      <c r="C10" s="25"/>
+      <c r="D10" s="25"/>
+      <c r="F10" s="6">
         <v>2</v>
       </c>
-      <c r="G10" s="5" t="s">
+      <c r="G10" s="25" t="s">
         <v>17</v>
       </c>
-      <c r="H10" s="5"/>
-      <c r="I10" s="5"/>
+      <c r="H10" s="25"/>
+      <c r="I10" s="25"/>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A11" s="19"/>
-      <c r="B11" s="19"/>
-      <c r="D11" s="19"/>
-      <c r="E11" s="18"/>
-      <c r="F11" s="19"/>
-      <c r="G11" s="19"/>
-      <c r="H11" s="19"/>
+      <c r="A11" s="9"/>
+      <c r="B11" s="9"/>
+      <c r="D11" s="9"/>
+      <c r="E11" s="8"/>
+      <c r="F11" s="9"/>
+      <c r="G11" s="9"/>
+      <c r="H11" s="9"/>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A12" s="19"/>
-      <c r="B12" s="19"/>
-      <c r="C12" s="21" t="s">
+      <c r="A12" s="9"/>
+      <c r="B12" s="9"/>
+      <c r="C12" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="D12" s="19" t="s">
+      <c r="D12" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="F12" s="19"/>
-      <c r="G12" s="19"/>
-      <c r="H12" s="19"/>
+      <c r="F12" s="9"/>
+      <c r="G12" s="9"/>
+      <c r="H12" s="9"/>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="C13" s="22" t="s">
+      <c r="C13" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="D13" s="7" t="s">
+      <c r="D13" s="4" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="C14" s="22" t="s">
+      <c r="C14" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="D14" s="7" t="s">
+      <c r="D14" s="4" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="C15" s="22" t="s">
+      <c r="C15" s="12" t="s">
         <v>28</v>
       </c>
-      <c r="D15" s="7" t="s">
+      <c r="D15" s="4" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A17" s="10" t="s">
+      <c r="A17" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="B17" s="14"/>
-      <c r="C17" s="15"/>
-      <c r="D17" s="16"/>
-      <c r="E17" s="10" t="s">
+      <c r="B17" s="26"/>
+      <c r="C17" s="27"/>
+      <c r="D17" s="28"/>
+      <c r="E17" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="F17" s="10" t="s">
+      <c r="F17" s="5" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="18" spans="1:6" ht="34.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="6" t="s">
+      <c r="A18" s="3" t="s">
         <v>32</v>
       </c>
       <c r="B18" s="24" t="s">
@@ -998,114 +1449,96 @@
       </c>
       <c r="C18" s="24"/>
       <c r="D18" s="24"/>
-      <c r="E18" s="25">
+      <c r="E18" s="15">
         <v>0</v>
       </c>
-      <c r="F18" s="6" t="s">
+      <c r="F18" s="3" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A19" s="6" t="s">
+      <c r="A19" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="B19" s="5" t="s">
+      <c r="B19" s="25" t="s">
         <v>35</v>
       </c>
-      <c r="C19" s="5"/>
-      <c r="D19" s="5"/>
-      <c r="E19" s="25">
+      <c r="C19" s="25"/>
+      <c r="D19" s="25"/>
+      <c r="E19" s="15">
         <v>50</v>
       </c>
-      <c r="F19" s="26">
+      <c r="F19" s="16">
         <v>0.03</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A20" s="6" t="s">
+      <c r="A20" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="B20" s="5" t="s">
+      <c r="B20" s="25" t="s">
         <v>37</v>
       </c>
-      <c r="C20" s="5"/>
-      <c r="D20" s="5"/>
+      <c r="C20" s="25"/>
+      <c r="D20" s="25"/>
       <c r="E20" s="1">
         <v>500</v>
       </c>
-      <c r="F20" s="26">
+      <c r="F20" s="16">
         <v>0.05</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A21" s="6" t="s">
+      <c r="A21" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="B21" s="5" t="s">
+      <c r="B21" s="25" t="s">
         <v>38</v>
       </c>
-      <c r="C21" s="5"/>
-      <c r="D21" s="5"/>
-      <c r="E21" s="25">
+      <c r="C21" s="25"/>
+      <c r="D21" s="25"/>
+      <c r="E21" s="15">
         <v>1500</v>
       </c>
-      <c r="F21" s="26">
+      <c r="F21" s="16">
         <v>7.0000000000000007E-2</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="E22" s="23"/>
+      <c r="E22" s="13"/>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="E23" s="23"/>
+      <c r="E23" s="13"/>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="E24" s="23"/>
+      <c r="E24" s="13"/>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="E25" s="23"/>
+      <c r="E25" s="13"/>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="E26" s="23"/>
+      <c r="E26" s="13"/>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="E27" s="23"/>
+      <c r="E27" s="13"/>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="E28" s="23"/>
+      <c r="E28" s="13"/>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="E29" s="23"/>
+      <c r="E29" s="13"/>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="E30" s="23"/>
+      <c r="E30" s="13"/>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="E31" s="23"/>
+      <c r="E31" s="13"/>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="E32" s="23"/>
+      <c r="E32" s="13"/>
     </row>
   </sheetData>
   <mergeCells count="26">
-    <mergeCell ref="B18:D18"/>
-    <mergeCell ref="B19:D19"/>
-    <mergeCell ref="B20:D20"/>
-    <mergeCell ref="B21:D21"/>
-    <mergeCell ref="B17:D17"/>
-    <mergeCell ref="J6:K6"/>
-    <mergeCell ref="B8:D8"/>
-    <mergeCell ref="B9:D9"/>
-    <mergeCell ref="B10:D10"/>
-    <mergeCell ref="G8:I8"/>
-    <mergeCell ref="G9:I9"/>
-    <mergeCell ref="G10:I10"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="C4:E4"/>
-    <mergeCell ref="A6:B6"/>
-    <mergeCell ref="D6:E6"/>
-    <mergeCell ref="F6:G6"/>
-    <mergeCell ref="H6:I6"/>
     <mergeCell ref="A1:B1"/>
     <mergeCell ref="A2:B2"/>
     <mergeCell ref="D1:E1"/>
@@ -1114,6 +1547,24 @@
     <mergeCell ref="F2:G2"/>
     <mergeCell ref="H2:I2"/>
     <mergeCell ref="J2:K2"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="C4:E4"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="D6:E6"/>
+    <mergeCell ref="F6:G6"/>
+    <mergeCell ref="J6:K6"/>
+    <mergeCell ref="B8:D8"/>
+    <mergeCell ref="B9:D9"/>
+    <mergeCell ref="B10:D10"/>
+    <mergeCell ref="G8:I8"/>
+    <mergeCell ref="G9:I9"/>
+    <mergeCell ref="G10:I10"/>
+    <mergeCell ref="H6:I6"/>
+    <mergeCell ref="B18:D18"/>
+    <mergeCell ref="B19:D19"/>
+    <mergeCell ref="B20:D20"/>
+    <mergeCell ref="B21:D21"/>
+    <mergeCell ref="B17:D17"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -1124,320 +1575,328 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AD16DCAF-98CB-44E3-90A4-81A70F134445}">
   <dimension ref="A1:K32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D14" workbookViewId="0">
-      <selection activeCell="E27" sqref="E27"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I18" sqref="I18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="8.7265625" style="7"/>
-    <col min="2" max="2" width="10.7265625" style="7" customWidth="1"/>
-    <col min="3" max="3" width="14.453125" style="7" customWidth="1"/>
-    <col min="4" max="4" width="23.1796875" style="7" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="42.7265625" style="7" customWidth="1"/>
-    <col min="6" max="6" width="16.08984375" style="7" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="22.7265625" style="7" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="8.7265625" style="7"/>
-    <col min="9" max="9" width="16.7265625" style="7" customWidth="1"/>
-    <col min="10" max="10" width="8.7265625" style="7"/>
-    <col min="11" max="11" width="13.1796875" style="7" customWidth="1"/>
-    <col min="12" max="16384" width="8.7265625" style="7"/>
+    <col min="1" max="1" width="8.7265625" style="4"/>
+    <col min="2" max="2" width="10.7265625" style="4" customWidth="1"/>
+    <col min="3" max="3" width="14.453125" style="4" customWidth="1"/>
+    <col min="4" max="4" width="23.1796875" style="4" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="42.7265625" style="4" customWidth="1"/>
+    <col min="6" max="6" width="16.08984375" style="4" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="22.7265625" style="4" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="8.7265625" style="4"/>
+    <col min="9" max="9" width="16.7265625" style="4" customWidth="1"/>
+    <col min="10" max="10" width="8.7265625" style="4"/>
+    <col min="11" max="11" width="13.1796875" style="4" customWidth="1"/>
+    <col min="12" max="16384" width="8.7265625" style="4"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="31" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3"/>
-      <c r="C1" s="6" t="s">
+      <c r="B1" s="31"/>
+      <c r="C1" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="31" t="s">
         <v>4</v>
       </c>
-      <c r="E1" s="3"/>
-      <c r="F1" s="4" t="s">
+      <c r="E1" s="31"/>
+      <c r="F1" s="29" t="s">
         <v>41</v>
       </c>
-      <c r="G1" s="4"/>
-      <c r="H1" s="4"/>
-      <c r="I1" s="4"/>
-      <c r="J1" s="4"/>
-      <c r="K1" s="4"/>
+      <c r="G1" s="29"/>
+      <c r="H1" s="29"/>
+      <c r="I1" s="29"/>
+      <c r="J1" s="29"/>
+      <c r="K1" s="29"/>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="31" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="3"/>
-      <c r="C2" s="6" t="s">
+      <c r="B2" s="31"/>
+      <c r="C2" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="D2" s="31" t="s">
         <v>5</v>
       </c>
-      <c r="E2" s="3"/>
-      <c r="F2" s="4" t="s">
+      <c r="E2" s="31"/>
+      <c r="F2" s="29" t="s">
         <v>6</v>
       </c>
-      <c r="G2" s="4"/>
-      <c r="H2" s="3" t="s">
+      <c r="G2" s="29"/>
+      <c r="H2" s="31" t="s">
         <v>7</v>
       </c>
-      <c r="I2" s="3"/>
-      <c r="J2" s="5">
+      <c r="I2" s="31"/>
+      <c r="J2" s="25">
         <v>1</v>
       </c>
-      <c r="K2" s="5"/>
+      <c r="K2" s="25"/>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A4" s="8" t="s">
+      <c r="A4" s="43" t="s">
         <v>8</v>
       </c>
-      <c r="B4" s="8"/>
-      <c r="C4" s="27" t="s">
+      <c r="B4" s="43"/>
+      <c r="C4" s="32" t="s">
         <v>42</v>
       </c>
-      <c r="D4" s="4"/>
-      <c r="E4" s="4"/>
+      <c r="D4" s="29"/>
+      <c r="E4" s="29"/>
     </row>
     <row r="6" spans="1:11" ht="33.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="3" t="s">
+      <c r="A6" s="31" t="s">
         <v>10</v>
       </c>
-      <c r="B6" s="3"/>
-      <c r="C6" s="6" t="s">
+      <c r="B6" s="31"/>
+      <c r="C6" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="D6" s="3" t="s">
+      <c r="D6" s="31" t="s">
         <v>11</v>
       </c>
-      <c r="E6" s="3"/>
-      <c r="F6" s="9">
+      <c r="E6" s="31"/>
+      <c r="F6" s="33">
         <v>46028</v>
       </c>
-      <c r="G6" s="9"/>
-      <c r="H6" s="11" t="s">
+      <c r="G6" s="33"/>
+      <c r="H6" s="34" t="s">
         <v>12</v>
       </c>
-      <c r="I6" s="12"/>
-      <c r="J6" s="4" t="s">
+      <c r="I6" s="35"/>
+      <c r="J6" s="29" t="s">
         <v>13</v>
       </c>
-      <c r="K6" s="4"/>
+      <c r="K6" s="29"/>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A8" s="17" t="s">
+      <c r="A8" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="B8" s="28" t="s">
+      <c r="B8" s="41" t="s">
         <v>15</v>
       </c>
-      <c r="C8" s="28"/>
-      <c r="D8" s="28"/>
-      <c r="F8" s="17" t="s">
+      <c r="C8" s="41"/>
+      <c r="D8" s="41"/>
+      <c r="F8" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="G8" s="20" t="s">
+      <c r="G8" s="30" t="s">
         <v>18</v>
       </c>
-      <c r="H8" s="5"/>
-      <c r="I8" s="5"/>
+      <c r="H8" s="25"/>
+      <c r="I8" s="25"/>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A9" s="13">
+      <c r="A9" s="6">
         <v>1</v>
       </c>
-      <c r="B9" s="29" t="s">
+      <c r="B9" s="42" t="s">
         <v>43</v>
       </c>
-      <c r="C9" s="29"/>
-      <c r="D9" s="29"/>
-      <c r="F9" s="13">
+      <c r="C9" s="42"/>
+      <c r="D9" s="42"/>
+      <c r="F9" s="6">
         <v>1</v>
       </c>
-      <c r="G9" s="4" t="s">
+      <c r="G9" s="29" t="s">
         <v>44</v>
       </c>
-      <c r="H9" s="4"/>
-      <c r="I9" s="4"/>
+      <c r="H9" s="29"/>
+      <c r="I9" s="29"/>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A10" s="13">
+      <c r="A10" s="6">
         <v>2</v>
       </c>
-      <c r="B10" s="29" t="s">
+      <c r="B10" s="42" t="s">
         <v>48</v>
       </c>
-      <c r="C10" s="29"/>
-      <c r="D10" s="29"/>
-      <c r="F10" s="13">
+      <c r="C10" s="42"/>
+      <c r="D10" s="42"/>
+      <c r="F10" s="6">
         <v>2</v>
       </c>
-      <c r="G10" s="4" t="s">
+      <c r="G10" s="29" t="s">
         <v>45</v>
       </c>
-      <c r="H10" s="4"/>
-      <c r="I10" s="4"/>
+      <c r="H10" s="29"/>
+      <c r="I10" s="29"/>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A11" s="19"/>
-      <c r="B11" s="19"/>
-      <c r="D11" s="19"/>
-      <c r="E11" s="18"/>
-      <c r="F11" s="13">
+      <c r="A11" s="9"/>
+      <c r="B11" s="9"/>
+      <c r="D11" s="9"/>
+      <c r="E11" s="8"/>
+      <c r="F11" s="6">
         <v>3</v>
       </c>
-      <c r="G11" s="4" t="s">
+      <c r="G11" s="29" t="s">
         <v>46</v>
       </c>
-      <c r="H11" s="4"/>
-      <c r="I11" s="4"/>
+      <c r="H11" s="29"/>
+      <c r="I11" s="29"/>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A12" s="19"/>
-      <c r="B12" s="19"/>
-      <c r="C12" s="21"/>
-      <c r="D12" s="19"/>
-      <c r="F12" s="19"/>
-      <c r="G12" s="19"/>
-      <c r="H12" s="19"/>
+      <c r="A12" s="9"/>
+      <c r="B12" s="9"/>
+      <c r="C12" s="11"/>
+      <c r="D12" s="9"/>
+      <c r="F12" s="9"/>
+      <c r="G12" s="9"/>
+      <c r="H12" s="9"/>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="C13" s="22"/>
+      <c r="C13" s="12"/>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="C14" s="22"/>
+      <c r="C14" s="12"/>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A15" s="30" t="s">
+      <c r="A15" s="39" t="s">
         <v>47</v>
       </c>
-      <c r="B15" s="2"/>
-      <c r="C15" s="22"/>
+      <c r="B15" s="40"/>
+      <c r="C15" s="12"/>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A17" s="10" t="s">
+      <c r="A17" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="B17" s="14" t="s">
+      <c r="B17" s="26" t="s">
         <v>50</v>
       </c>
-      <c r="C17" s="15"/>
-      <c r="D17" s="16"/>
-      <c r="E17" s="10" t="s">
+      <c r="C17" s="27"/>
+      <c r="D17" s="28"/>
+      <c r="E17" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="F17" s="10" t="s">
+      <c r="F17" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="G17" s="10" t="s">
+      <c r="G17" s="5" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="18" spans="1:7" ht="34.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="31">
+      <c r="A18" s="18">
         <v>1</v>
       </c>
-      <c r="B18" s="35" t="s">
+      <c r="B18" s="36" t="s">
         <v>57</v>
       </c>
-      <c r="C18" s="36"/>
-      <c r="D18" s="37"/>
-      <c r="E18" s="38" t="s">
+      <c r="C18" s="37"/>
+      <c r="D18" s="38"/>
+      <c r="E18" s="22" t="s">
         <v>54</v>
       </c>
-      <c r="F18" s="33" t="s">
+      <c r="F18" s="20" t="s">
         <v>56</v>
       </c>
-      <c r="G18" s="33" t="s">
+      <c r="G18" s="20" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="19" spans="1:7" ht="34" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A19" s="31">
+      <c r="A19" s="18">
         <v>2</v>
       </c>
-      <c r="B19" s="35" t="s">
+      <c r="B19" s="36" t="s">
         <v>58</v>
       </c>
-      <c r="C19" s="36"/>
-      <c r="D19" s="37"/>
-      <c r="E19" s="38" t="s">
+      <c r="C19" s="37"/>
+      <c r="D19" s="38"/>
+      <c r="E19" s="22" t="s">
         <v>59</v>
       </c>
-      <c r="F19" s="34"/>
-      <c r="G19" s="33" t="s">
+      <c r="F19" s="21"/>
+      <c r="G19" s="20" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="20" spans="1:7" ht="33" x14ac:dyDescent="0.35">
-      <c r="A20" s="31">
+      <c r="A20" s="18">
         <v>3</v>
       </c>
-      <c r="B20" s="35" t="s">
+      <c r="B20" s="36" t="s">
         <v>60</v>
       </c>
-      <c r="C20" s="36"/>
-      <c r="D20" s="37"/>
-      <c r="E20" s="39" t="s">
+      <c r="C20" s="37"/>
+      <c r="D20" s="38"/>
+      <c r="E20" s="23" t="s">
         <v>61</v>
       </c>
-      <c r="F20" s="34"/>
-      <c r="G20" s="33" t="s">
+      <c r="F20" s="21"/>
+      <c r="G20" s="20" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A21" s="31"/>
-      <c r="B21" s="35"/>
-      <c r="C21" s="36"/>
-      <c r="D21" s="37"/>
-      <c r="E21" s="38"/>
-      <c r="F21" s="34"/>
-      <c r="G21" s="33"/>
+      <c r="A21" s="18"/>
+      <c r="B21" s="36"/>
+      <c r="C21" s="37"/>
+      <c r="D21" s="38"/>
+      <c r="E21" s="22"/>
+      <c r="F21" s="21"/>
+      <c r="G21" s="20"/>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A22" s="32"/>
-      <c r="E22" s="23"/>
+      <c r="A22" s="19"/>
+      <c r="E22" s="13"/>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="E23" s="23"/>
+      <c r="E23" s="13"/>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="E24" s="23"/>
+      <c r="E24" s="13"/>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="E25" s="23"/>
+      <c r="E25" s="13"/>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="E26" s="23"/>
+      <c r="E26" s="13"/>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="E27" s="23"/>
+      <c r="E27" s="13"/>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="E28" s="23"/>
+      <c r="E28" s="13"/>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="E29" s="23"/>
+      <c r="E29" s="13"/>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="E30" s="23"/>
+      <c r="E30" s="13"/>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="E31" s="23"/>
+      <c r="E31" s="13"/>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="E32" s="23"/>
+      <c r="E32" s="13"/>
     </row>
   </sheetData>
   <mergeCells count="28">
-    <mergeCell ref="B17:D17"/>
-    <mergeCell ref="B18:D18"/>
-    <mergeCell ref="B19:D19"/>
-    <mergeCell ref="B20:D20"/>
-    <mergeCell ref="B21:D21"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="D1:E1"/>
+    <mergeCell ref="F1:K1"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="D2:E2"/>
+    <mergeCell ref="F2:G2"/>
+    <mergeCell ref="H2:I2"/>
+    <mergeCell ref="J2:K2"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="C4:E4"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="D6:E6"/>
+    <mergeCell ref="F6:G6"/>
     <mergeCell ref="G11:I11"/>
     <mergeCell ref="A15:B15"/>
     <mergeCell ref="J6:K6"/>
@@ -1447,20 +1906,1513 @@
     <mergeCell ref="G9:I9"/>
     <mergeCell ref="B10:D10"/>
     <mergeCell ref="G10:I10"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="C4:E4"/>
-    <mergeCell ref="A6:B6"/>
-    <mergeCell ref="D6:E6"/>
-    <mergeCell ref="F6:G6"/>
     <mergeCell ref="H6:I6"/>
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="D1:E1"/>
-    <mergeCell ref="F1:K1"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="D2:E2"/>
-    <mergeCell ref="F2:G2"/>
-    <mergeCell ref="H2:I2"/>
-    <mergeCell ref="J2:K2"/>
+    <mergeCell ref="B17:D17"/>
+    <mergeCell ref="B18:D18"/>
+    <mergeCell ref="B19:D19"/>
+    <mergeCell ref="B20:D20"/>
+    <mergeCell ref="B21:D21"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2AF02BE7-00AF-4639-ABCF-18B5D0BB7ADD}">
+  <dimension ref="A1:K53"/>
+  <sheetViews>
+    <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="H36" sqref="H36"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="23.08984375" customWidth="1"/>
+    <col min="2" max="2" width="20.08984375" customWidth="1"/>
+    <col min="3" max="3" width="19.54296875" customWidth="1"/>
+    <col min="4" max="4" width="17.90625" customWidth="1"/>
+    <col min="5" max="5" width="29.81640625" customWidth="1"/>
+    <col min="6" max="6" width="21.90625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A1" s="44" t="s">
+        <v>62</v>
+      </c>
+      <c r="B1" s="44"/>
+      <c r="C1" s="44"/>
+      <c r="D1" s="44"/>
+      <c r="E1" s="44"/>
+      <c r="F1" s="44"/>
+      <c r="G1" s="44"/>
+      <c r="H1" s="44"/>
+      <c r="I1" s="44"/>
+      <c r="J1" s="44"/>
+      <c r="K1" s="45"/>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A2" s="45"/>
+      <c r="B2" s="45"/>
+      <c r="C2" s="45"/>
+      <c r="D2" s="45"/>
+      <c r="E2" s="45"/>
+      <c r="F2" s="45"/>
+      <c r="G2" s="45"/>
+      <c r="H2" s="45"/>
+      <c r="I2" s="45"/>
+      <c r="J2" s="45"/>
+      <c r="K2" s="45"/>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A3" s="46"/>
+      <c r="B3" s="45"/>
+      <c r="C3" s="45"/>
+      <c r="D3" s="45"/>
+      <c r="E3" s="45"/>
+      <c r="F3" s="45"/>
+      <c r="G3" s="45"/>
+      <c r="H3" s="45"/>
+      <c r="I3" s="45"/>
+      <c r="J3" s="45"/>
+      <c r="K3" s="45"/>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A4" s="47" t="s">
+        <v>63</v>
+      </c>
+      <c r="B4" s="48"/>
+      <c r="C4" s="48"/>
+      <c r="D4" s="48"/>
+      <c r="E4" s="49" t="s">
+        <v>64</v>
+      </c>
+      <c r="F4" s="49"/>
+      <c r="G4" s="49"/>
+      <c r="H4" s="49"/>
+      <c r="I4" s="45"/>
+      <c r="J4" s="45"/>
+      <c r="K4" s="45"/>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A5" s="45" t="s">
+        <v>65</v>
+      </c>
+      <c r="B5" s="45"/>
+      <c r="C5" s="45"/>
+      <c r="D5" s="45"/>
+      <c r="E5" s="50" t="s">
+        <v>66</v>
+      </c>
+      <c r="F5" s="51"/>
+      <c r="G5" s="51"/>
+      <c r="H5" s="51"/>
+      <c r="I5" s="45"/>
+      <c r="J5" s="45"/>
+      <c r="K5" s="45"/>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A6" s="45" t="s">
+        <v>67</v>
+      </c>
+      <c r="B6" s="45"/>
+      <c r="C6" s="45"/>
+      <c r="D6" s="45"/>
+      <c r="E6" s="52" t="s">
+        <v>68</v>
+      </c>
+      <c r="F6" s="52"/>
+      <c r="G6" s="52"/>
+      <c r="H6" s="52"/>
+      <c r="I6" s="52"/>
+      <c r="J6" s="45"/>
+      <c r="K6" s="45"/>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A7" s="45" t="s">
+        <v>69</v>
+      </c>
+      <c r="B7" s="45"/>
+      <c r="C7" s="53"/>
+      <c r="D7" s="45"/>
+      <c r="E7" s="45" t="s">
+        <v>70</v>
+      </c>
+      <c r="F7" s="45"/>
+      <c r="G7" s="45"/>
+      <c r="H7" s="45"/>
+      <c r="I7" s="45"/>
+      <c r="J7" s="45"/>
+      <c r="K7" s="45"/>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A8" s="45" t="s">
+        <v>71</v>
+      </c>
+      <c r="B8" s="45"/>
+      <c r="C8" s="45"/>
+      <c r="D8" s="45"/>
+      <c r="E8" s="46" t="s">
+        <v>72</v>
+      </c>
+      <c r="F8" s="45"/>
+      <c r="G8" s="45"/>
+      <c r="H8" s="45"/>
+      <c r="I8" s="45"/>
+      <c r="J8" s="45"/>
+      <c r="K8" s="45"/>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A9" s="45" t="s">
+        <v>73</v>
+      </c>
+      <c r="B9" s="45"/>
+      <c r="C9" s="45"/>
+      <c r="D9" s="45"/>
+      <c r="E9" s="45" t="s">
+        <v>74</v>
+      </c>
+      <c r="F9" s="45"/>
+      <c r="G9" s="45"/>
+      <c r="H9" s="45"/>
+      <c r="I9" s="45"/>
+      <c r="J9" s="45"/>
+      <c r="K9" s="45"/>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A10" s="45" t="s">
+        <v>75</v>
+      </c>
+      <c r="B10" s="45"/>
+      <c r="C10" s="45"/>
+      <c r="D10" s="45"/>
+      <c r="E10" s="52" t="s">
+        <v>76</v>
+      </c>
+      <c r="F10" s="52"/>
+      <c r="G10" s="52"/>
+      <c r="H10" s="52"/>
+      <c r="I10" s="52"/>
+      <c r="J10" s="45"/>
+      <c r="K10" s="45"/>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A11" s="45" t="s">
+        <v>77</v>
+      </c>
+      <c r="B11" s="45"/>
+      <c r="C11" s="45"/>
+      <c r="D11" s="45"/>
+      <c r="E11" s="50" t="s">
+        <v>78</v>
+      </c>
+      <c r="F11" s="51"/>
+      <c r="G11" s="51"/>
+      <c r="H11" s="51"/>
+      <c r="I11" s="45"/>
+      <c r="J11" s="45"/>
+      <c r="K11" s="45"/>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A12" s="45"/>
+      <c r="B12" s="45"/>
+      <c r="C12" s="45"/>
+      <c r="D12" s="45"/>
+      <c r="E12" s="54" t="s">
+        <v>79</v>
+      </c>
+      <c r="F12" s="54"/>
+      <c r="G12" s="54"/>
+      <c r="H12" s="54"/>
+      <c r="I12" s="45"/>
+      <c r="J12" s="45"/>
+      <c r="K12" s="45"/>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A13" s="45"/>
+      <c r="B13" s="45"/>
+      <c r="C13" s="45"/>
+      <c r="D13" s="45"/>
+      <c r="E13" s="51" t="s">
+        <v>80</v>
+      </c>
+      <c r="F13" s="51"/>
+      <c r="G13" s="51"/>
+      <c r="H13" s="54"/>
+      <c r="I13" s="45"/>
+      <c r="J13" s="45"/>
+      <c r="K13" s="45"/>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A14" s="45"/>
+      <c r="B14" s="45"/>
+      <c r="C14" s="45"/>
+      <c r="D14" s="45"/>
+      <c r="E14" s="54" t="s">
+        <v>81</v>
+      </c>
+      <c r="F14" s="54"/>
+      <c r="G14" s="54"/>
+      <c r="H14" s="54"/>
+      <c r="I14" s="45"/>
+      <c r="J14" s="45"/>
+      <c r="K14" s="45"/>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A15" s="45"/>
+      <c r="B15" s="45"/>
+      <c r="C15" s="45"/>
+      <c r="D15" s="45"/>
+      <c r="E15" s="45"/>
+      <c r="F15" s="45"/>
+      <c r="G15" s="45"/>
+      <c r="H15" s="45"/>
+      <c r="I15" s="45"/>
+      <c r="J15" s="45"/>
+      <c r="K15" s="45"/>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A16" s="46" t="s">
+        <v>82</v>
+      </c>
+      <c r="B16" s="45"/>
+      <c r="C16" s="45"/>
+      <c r="D16" s="45"/>
+      <c r="E16" s="45"/>
+      <c r="F16" s="45"/>
+      <c r="G16" s="45"/>
+      <c r="H16" s="45"/>
+      <c r="I16" s="45"/>
+      <c r="J16" s="45"/>
+      <c r="K16" s="45"/>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A17" s="45"/>
+      <c r="B17" s="45"/>
+      <c r="C17" s="45"/>
+      <c r="D17" s="45"/>
+      <c r="E17" s="45"/>
+      <c r="F17" s="45"/>
+      <c r="G17" s="45"/>
+      <c r="H17" s="45"/>
+      <c r="I17" s="45"/>
+      <c r="J17" s="45"/>
+      <c r="K17" s="45"/>
+    </row>
+    <row r="18" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A18" s="31" t="s">
+        <v>0</v>
+      </c>
+      <c r="B18" s="31"/>
+      <c r="C18" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D18" s="31" t="s">
+        <v>4</v>
+      </c>
+      <c r="E18" s="31"/>
+      <c r="F18" s="29" t="s">
+        <v>83</v>
+      </c>
+      <c r="G18" s="29"/>
+      <c r="H18" s="29"/>
+      <c r="I18" s="29"/>
+      <c r="J18" s="29"/>
+      <c r="K18" s="29"/>
+    </row>
+    <row r="19" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A19" s="31" t="s">
+        <v>1</v>
+      </c>
+      <c r="B19" s="31"/>
+      <c r="C19" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="D19" s="31" t="s">
+        <v>5</v>
+      </c>
+      <c r="E19" s="31"/>
+      <c r="F19" s="29" t="s">
+        <v>6</v>
+      </c>
+      <c r="G19" s="29"/>
+      <c r="H19" s="31" t="s">
+        <v>7</v>
+      </c>
+      <c r="I19" s="31"/>
+      <c r="J19" s="25">
+        <v>1</v>
+      </c>
+      <c r="K19" s="25"/>
+    </row>
+    <row r="20" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A20" s="4"/>
+      <c r="B20" s="4"/>
+      <c r="C20" s="4"/>
+      <c r="D20" s="4"/>
+      <c r="E20" s="4"/>
+      <c r="F20" s="4"/>
+      <c r="G20" s="4"/>
+      <c r="H20" s="4"/>
+      <c r="I20" s="4"/>
+      <c r="J20" s="4"/>
+      <c r="K20" s="4"/>
+    </row>
+    <row r="21" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A21" s="43" t="s">
+        <v>8</v>
+      </c>
+      <c r="B21" s="43"/>
+      <c r="C21" s="32" t="s">
+        <v>84</v>
+      </c>
+      <c r="D21" s="29"/>
+      <c r="E21" s="29"/>
+      <c r="F21" s="4"/>
+      <c r="G21" s="4"/>
+      <c r="H21" s="4"/>
+      <c r="I21" s="4"/>
+      <c r="J21" s="4"/>
+      <c r="K21" s="4"/>
+    </row>
+    <row r="22" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A22" s="4"/>
+      <c r="B22" s="4"/>
+      <c r="C22" s="4"/>
+      <c r="D22" s="4"/>
+      <c r="E22" s="4"/>
+      <c r="F22" s="4"/>
+      <c r="G22" s="4"/>
+      <c r="H22" s="4"/>
+      <c r="I22" s="4"/>
+      <c r="J22" s="4"/>
+      <c r="K22" s="4"/>
+    </row>
+    <row r="23" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A23" s="31" t="s">
+        <v>10</v>
+      </c>
+      <c r="B23" s="31"/>
+      <c r="C23" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="D23" s="31" t="s">
+        <v>11</v>
+      </c>
+      <c r="E23" s="31"/>
+      <c r="F23" s="33">
+        <v>46028</v>
+      </c>
+      <c r="G23" s="33"/>
+      <c r="H23" s="34" t="s">
+        <v>12</v>
+      </c>
+      <c r="I23" s="35"/>
+      <c r="J23" s="29" t="s">
+        <v>13</v>
+      </c>
+      <c r="K23" s="29"/>
+    </row>
+    <row r="24" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A24" s="4"/>
+      <c r="B24" s="4"/>
+      <c r="C24" s="4"/>
+      <c r="D24" s="4"/>
+      <c r="E24" s="4"/>
+      <c r="F24" s="4"/>
+      <c r="G24" s="4"/>
+      <c r="H24" s="4"/>
+      <c r="I24" s="4"/>
+      <c r="J24" s="4"/>
+      <c r="K24" s="4"/>
+    </row>
+    <row r="25" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A25" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="B25" s="41" t="s">
+        <v>15</v>
+      </c>
+      <c r="C25" s="41"/>
+      <c r="D25" s="41"/>
+      <c r="E25" s="4"/>
+      <c r="F25" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="G25" s="30" t="s">
+        <v>18</v>
+      </c>
+      <c r="H25" s="25"/>
+      <c r="I25" s="25"/>
+      <c r="J25" s="4"/>
+      <c r="K25" s="4"/>
+    </row>
+    <row r="26" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A26" s="6">
+        <v>1</v>
+      </c>
+      <c r="B26" s="42" t="s">
+        <v>85</v>
+      </c>
+      <c r="C26" s="42"/>
+      <c r="D26" s="42"/>
+      <c r="E26" s="4"/>
+      <c r="F26" s="6">
+        <v>1</v>
+      </c>
+      <c r="G26" s="29" t="s">
+        <v>86</v>
+      </c>
+      <c r="H26" s="29"/>
+      <c r="I26" s="29"/>
+      <c r="J26" s="4"/>
+      <c r="K26" s="4"/>
+    </row>
+    <row r="27" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A27" s="6">
+        <v>2</v>
+      </c>
+      <c r="B27" s="42" t="s">
+        <v>48</v>
+      </c>
+      <c r="C27" s="42"/>
+      <c r="D27" s="42"/>
+      <c r="E27" s="4"/>
+      <c r="F27" s="6">
+        <v>2</v>
+      </c>
+      <c r="G27" s="29" t="s">
+        <v>87</v>
+      </c>
+      <c r="H27" s="29"/>
+      <c r="I27" s="29"/>
+      <c r="J27" s="4"/>
+      <c r="K27" s="4"/>
+    </row>
+    <row r="28" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A28" s="55"/>
+      <c r="B28" s="55"/>
+      <c r="C28" s="4"/>
+      <c r="D28" s="55"/>
+      <c r="E28" s="2"/>
+      <c r="F28" s="6">
+        <v>3</v>
+      </c>
+      <c r="G28" s="29" t="s">
+        <v>88</v>
+      </c>
+      <c r="H28" s="29"/>
+      <c r="I28" s="29"/>
+      <c r="J28" s="4"/>
+      <c r="K28" s="4"/>
+    </row>
+    <row r="29" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A29" s="55"/>
+      <c r="B29" s="55"/>
+      <c r="C29" s="11"/>
+      <c r="D29" s="55"/>
+      <c r="E29" s="4"/>
+      <c r="F29" s="56">
+        <v>4</v>
+      </c>
+      <c r="G29" s="17" t="s">
+        <v>89</v>
+      </c>
+      <c r="H29" s="17"/>
+      <c r="I29" s="3"/>
+      <c r="J29" s="4"/>
+      <c r="K29" s="4"/>
+    </row>
+    <row r="30" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A30" s="4"/>
+      <c r="B30" s="4"/>
+      <c r="C30" s="12"/>
+      <c r="D30" s="4"/>
+      <c r="E30" s="4"/>
+      <c r="F30" s="4"/>
+      <c r="G30" s="4"/>
+      <c r="H30" s="4"/>
+      <c r="I30" s="4"/>
+      <c r="J30" s="4"/>
+      <c r="K30" s="4"/>
+    </row>
+    <row r="31" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A31" s="4"/>
+      <c r="B31" s="4"/>
+      <c r="C31" s="12"/>
+      <c r="D31" s="4"/>
+      <c r="E31" s="4"/>
+      <c r="F31" s="4"/>
+      <c r="G31" s="4"/>
+      <c r="H31" s="4"/>
+      <c r="I31" s="4"/>
+      <c r="J31" s="4"/>
+      <c r="K31" s="4"/>
+    </row>
+    <row r="32" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A32" s="39" t="s">
+        <v>47</v>
+      </c>
+      <c r="B32" s="40"/>
+      <c r="C32" s="12"/>
+      <c r="D32" s="4"/>
+      <c r="E32" s="4"/>
+      <c r="F32" s="4"/>
+      <c r="G32" s="4"/>
+      <c r="H32" s="4"/>
+      <c r="I32" s="4"/>
+      <c r="J32" s="4"/>
+      <c r="K32" s="4"/>
+    </row>
+    <row r="33" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A33" s="4"/>
+      <c r="B33" s="4"/>
+      <c r="C33" s="4"/>
+      <c r="D33" s="4"/>
+      <c r="E33" s="4"/>
+      <c r="F33" s="4"/>
+      <c r="G33" s="4"/>
+      <c r="H33" s="4"/>
+      <c r="I33" s="4"/>
+      <c r="J33" s="4"/>
+      <c r="K33" s="4"/>
+    </row>
+    <row r="34" spans="1:11" ht="66" x14ac:dyDescent="0.35">
+      <c r="A34" s="57" t="s">
+        <v>0</v>
+      </c>
+      <c r="B34" s="58" t="s">
+        <v>90</v>
+      </c>
+      <c r="C34" s="58" t="s">
+        <v>91</v>
+      </c>
+      <c r="D34" s="58" t="s">
+        <v>92</v>
+      </c>
+      <c r="E34" s="57" t="s">
+        <v>93</v>
+      </c>
+      <c r="F34" s="57" t="s">
+        <v>94</v>
+      </c>
+      <c r="G34" s="57" t="s">
+        <v>95</v>
+      </c>
+      <c r="H34" s="4"/>
+      <c r="I34" s="4"/>
+      <c r="J34" s="4"/>
+      <c r="K34" s="4"/>
+    </row>
+    <row r="35" spans="1:11" ht="181.5" x14ac:dyDescent="0.35">
+      <c r="A35" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="B35" s="20" t="s">
+        <v>96</v>
+      </c>
+      <c r="C35" s="20" t="s">
+        <v>97</v>
+      </c>
+      <c r="D35" s="20" t="s">
+        <v>98</v>
+      </c>
+      <c r="E35" s="22" t="s">
+        <v>99</v>
+      </c>
+      <c r="F35" s="20" t="s">
+        <v>100</v>
+      </c>
+      <c r="G35" s="20" t="s">
+        <v>101</v>
+      </c>
+      <c r="H35" s="4"/>
+      <c r="I35" s="4"/>
+      <c r="J35" s="4"/>
+      <c r="K35" s="4"/>
+    </row>
+    <row r="36" spans="1:11" ht="82.5" x14ac:dyDescent="0.35">
+      <c r="A36" s="14"/>
+      <c r="B36" s="20"/>
+      <c r="C36" s="20" t="s">
+        <v>102</v>
+      </c>
+      <c r="D36" s="20" t="s">
+        <v>103</v>
+      </c>
+      <c r="E36" s="23"/>
+      <c r="F36" s="21"/>
+      <c r="G36" s="20"/>
+      <c r="H36" s="4"/>
+      <c r="I36" s="4"/>
+      <c r="J36" s="4"/>
+      <c r="K36" s="4"/>
+    </row>
+    <row r="37" spans="1:11" ht="56.5" x14ac:dyDescent="0.35">
+      <c r="A37" s="59"/>
+      <c r="B37" s="59"/>
+      <c r="C37" s="59" t="s">
+        <v>104</v>
+      </c>
+      <c r="D37" s="59" t="s">
+        <v>105</v>
+      </c>
+      <c r="E37" s="59"/>
+      <c r="F37" s="59"/>
+      <c r="G37" s="59"/>
+      <c r="H37" s="45"/>
+      <c r="I37" s="45"/>
+      <c r="J37" s="45"/>
+      <c r="K37" s="45"/>
+    </row>
+    <row r="38" spans="1:11" ht="112.5" x14ac:dyDescent="0.35">
+      <c r="A38" s="59" t="s">
+        <v>34</v>
+      </c>
+      <c r="B38" s="59" t="s">
+        <v>106</v>
+      </c>
+      <c r="C38" s="59" t="s">
+        <v>97</v>
+      </c>
+      <c r="D38" s="59" t="s">
+        <v>107</v>
+      </c>
+      <c r="E38" s="59" t="s">
+        <v>108</v>
+      </c>
+      <c r="F38" s="59" t="s">
+        <v>100</v>
+      </c>
+      <c r="G38" s="59" t="s">
+        <v>101</v>
+      </c>
+      <c r="H38" s="45"/>
+      <c r="I38" s="45"/>
+      <c r="J38" s="45"/>
+      <c r="K38" s="45"/>
+    </row>
+    <row r="39" spans="1:11" ht="126.5" x14ac:dyDescent="0.35">
+      <c r="A39" s="59"/>
+      <c r="B39" s="59"/>
+      <c r="C39" s="59" t="s">
+        <v>102</v>
+      </c>
+      <c r="D39" s="59" t="s">
+        <v>109</v>
+      </c>
+      <c r="E39" s="59" t="s">
+        <v>110</v>
+      </c>
+      <c r="F39" s="59"/>
+      <c r="G39" s="59"/>
+      <c r="H39" s="45"/>
+      <c r="I39" s="45"/>
+      <c r="J39" s="45"/>
+      <c r="K39" s="45"/>
+    </row>
+    <row r="40" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A40" s="59"/>
+      <c r="B40" s="59"/>
+      <c r="C40" s="59"/>
+      <c r="D40" s="59"/>
+      <c r="E40" s="59"/>
+      <c r="F40" s="59"/>
+      <c r="G40" s="59"/>
+      <c r="H40" s="45"/>
+      <c r="I40" s="45"/>
+      <c r="J40" s="45"/>
+      <c r="K40" s="45"/>
+    </row>
+    <row r="41" spans="1:11" ht="56.5" x14ac:dyDescent="0.35">
+      <c r="A41" s="59"/>
+      <c r="B41" s="59"/>
+      <c r="C41" s="59" t="s">
+        <v>104</v>
+      </c>
+      <c r="D41" s="59"/>
+      <c r="E41" s="59"/>
+      <c r="F41" s="59"/>
+      <c r="G41" s="59"/>
+      <c r="H41" s="45"/>
+      <c r="I41" s="45"/>
+      <c r="J41" s="45"/>
+      <c r="K41" s="45"/>
+    </row>
+    <row r="42" spans="1:11" ht="98.5" x14ac:dyDescent="0.35">
+      <c r="A42" s="59" t="s">
+        <v>36</v>
+      </c>
+      <c r="B42" s="59" t="s">
+        <v>111</v>
+      </c>
+      <c r="C42" s="59" t="s">
+        <v>97</v>
+      </c>
+      <c r="D42" s="59" t="s">
+        <v>112</v>
+      </c>
+      <c r="E42" s="59" t="s">
+        <v>108</v>
+      </c>
+      <c r="F42" s="59" t="s">
+        <v>100</v>
+      </c>
+      <c r="G42" s="59" t="s">
+        <v>101</v>
+      </c>
+      <c r="H42" s="45"/>
+      <c r="I42" s="45"/>
+      <c r="J42" s="45"/>
+      <c r="K42" s="45"/>
+    </row>
+    <row r="43" spans="1:11" ht="70.5" x14ac:dyDescent="0.35">
+      <c r="A43" s="59"/>
+      <c r="B43" s="59"/>
+      <c r="C43" s="59" t="s">
+        <v>113</v>
+      </c>
+      <c r="D43" s="59" t="s">
+        <v>114</v>
+      </c>
+      <c r="E43" s="59" t="s">
+        <v>115</v>
+      </c>
+      <c r="F43" s="59"/>
+      <c r="G43" s="59"/>
+      <c r="H43" s="45"/>
+      <c r="I43" s="45"/>
+      <c r="J43" s="45"/>
+      <c r="K43" s="45"/>
+    </row>
+    <row r="44" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A44" s="59"/>
+      <c r="B44" s="59"/>
+      <c r="C44" s="59"/>
+      <c r="D44" s="59"/>
+      <c r="E44" s="59"/>
+      <c r="F44" s="59"/>
+      <c r="G44" s="59"/>
+      <c r="H44" s="45"/>
+      <c r="I44" s="45"/>
+      <c r="J44" s="45"/>
+      <c r="K44" s="45"/>
+    </row>
+    <row r="45" spans="1:11" ht="56.5" x14ac:dyDescent="0.35">
+      <c r="A45" s="59"/>
+      <c r="B45" s="59"/>
+      <c r="C45" s="59" t="s">
+        <v>104</v>
+      </c>
+      <c r="D45" s="59"/>
+      <c r="E45" s="59"/>
+      <c r="F45" s="59"/>
+      <c r="G45" s="59"/>
+      <c r="H45" s="45"/>
+      <c r="I45" s="45"/>
+      <c r="J45" s="45"/>
+      <c r="K45" s="45"/>
+    </row>
+    <row r="46" spans="1:11" ht="98.5" x14ac:dyDescent="0.35">
+      <c r="A46" s="59" t="s">
+        <v>39</v>
+      </c>
+      <c r="B46" s="59" t="s">
+        <v>116</v>
+      </c>
+      <c r="C46" s="59" t="s">
+        <v>97</v>
+      </c>
+      <c r="D46" s="59" t="s">
+        <v>117</v>
+      </c>
+      <c r="E46" s="59" t="s">
+        <v>108</v>
+      </c>
+      <c r="F46" s="59" t="s">
+        <v>100</v>
+      </c>
+      <c r="G46" s="59" t="s">
+        <v>101</v>
+      </c>
+      <c r="H46" s="45"/>
+      <c r="I46" s="45"/>
+      <c r="J46" s="45"/>
+      <c r="K46" s="45"/>
+    </row>
+    <row r="47" spans="1:11" ht="98.5" x14ac:dyDescent="0.35">
+      <c r="A47" s="59"/>
+      <c r="B47" s="59"/>
+      <c r="C47" s="59" t="s">
+        <v>118</v>
+      </c>
+      <c r="D47" s="59"/>
+      <c r="E47" s="59" t="s">
+        <v>119</v>
+      </c>
+      <c r="F47" s="59"/>
+      <c r="G47" s="59"/>
+      <c r="H47" s="45"/>
+      <c r="I47" s="45"/>
+      <c r="J47" s="45"/>
+      <c r="K47" s="45"/>
+    </row>
+    <row r="48" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A48" s="59"/>
+      <c r="B48" s="59"/>
+      <c r="C48" s="59"/>
+      <c r="D48" s="59"/>
+      <c r="E48" s="59"/>
+      <c r="F48" s="59"/>
+      <c r="G48" s="59"/>
+      <c r="H48" s="45"/>
+      <c r="I48" s="45"/>
+      <c r="J48" s="45"/>
+      <c r="K48" s="45"/>
+    </row>
+    <row r="49" spans="1:11" ht="56.5" x14ac:dyDescent="0.35">
+      <c r="A49" s="59"/>
+      <c r="B49" s="59"/>
+      <c r="C49" s="59" t="s">
+        <v>104</v>
+      </c>
+      <c r="D49" s="59"/>
+      <c r="E49" s="59"/>
+      <c r="F49" s="59"/>
+      <c r="G49" s="59"/>
+      <c r="H49" s="45"/>
+      <c r="I49" s="45"/>
+      <c r="J49" s="45"/>
+      <c r="K49" s="45"/>
+    </row>
+    <row r="50" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A50" s="45"/>
+      <c r="B50" s="45"/>
+      <c r="C50" s="45"/>
+      <c r="D50" s="45"/>
+      <c r="E50" s="45"/>
+      <c r="F50" s="45"/>
+      <c r="G50" s="45"/>
+      <c r="H50" s="45"/>
+      <c r="I50" s="45"/>
+      <c r="J50" s="45"/>
+      <c r="K50" s="45"/>
+    </row>
+    <row r="51" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A51" s="45"/>
+      <c r="B51" s="45"/>
+      <c r="C51" s="45"/>
+      <c r="D51" s="45"/>
+      <c r="E51" s="45"/>
+      <c r="F51" s="45"/>
+      <c r="G51" s="45"/>
+      <c r="H51" s="45"/>
+      <c r="I51" s="45"/>
+      <c r="J51" s="45"/>
+      <c r="K51" s="45"/>
+    </row>
+    <row r="52" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A52" s="45"/>
+      <c r="B52" s="45"/>
+      <c r="C52" s="45"/>
+      <c r="D52" s="45"/>
+      <c r="E52" s="45"/>
+      <c r="F52" s="45"/>
+      <c r="G52" s="45"/>
+      <c r="H52" s="45"/>
+      <c r="I52" s="45"/>
+      <c r="J52" s="45"/>
+      <c r="K52" s="45"/>
+    </row>
+    <row r="53" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A53" s="45"/>
+      <c r="B53" s="45"/>
+      <c r="C53" s="45"/>
+      <c r="D53" s="45"/>
+      <c r="E53" s="45"/>
+      <c r="F53" s="45"/>
+      <c r="G53" s="45"/>
+      <c r="H53" s="45"/>
+      <c r="I53" s="45"/>
+      <c r="J53" s="45"/>
+      <c r="K53" s="45"/>
+    </row>
+  </sheetData>
+  <mergeCells count="31">
+    <mergeCell ref="G28:I28"/>
+    <mergeCell ref="A32:B32"/>
+    <mergeCell ref="J23:K23"/>
+    <mergeCell ref="B25:D25"/>
+    <mergeCell ref="G25:I25"/>
+    <mergeCell ref="B26:D26"/>
+    <mergeCell ref="G26:I26"/>
+    <mergeCell ref="B27:D27"/>
+    <mergeCell ref="G27:I27"/>
+    <mergeCell ref="A21:B21"/>
+    <mergeCell ref="C21:E21"/>
+    <mergeCell ref="A23:B23"/>
+    <mergeCell ref="D23:E23"/>
+    <mergeCell ref="F23:G23"/>
+    <mergeCell ref="H23:I23"/>
+    <mergeCell ref="E11:H11"/>
+    <mergeCell ref="E13:G13"/>
+    <mergeCell ref="A18:B18"/>
+    <mergeCell ref="D18:E18"/>
+    <mergeCell ref="F18:K18"/>
+    <mergeCell ref="A19:B19"/>
+    <mergeCell ref="D19:E19"/>
+    <mergeCell ref="F19:G19"/>
+    <mergeCell ref="H19:I19"/>
+    <mergeCell ref="J19:K19"/>
+    <mergeCell ref="A1:J1"/>
+    <mergeCell ref="A4:D4"/>
+    <mergeCell ref="E4:H4"/>
+    <mergeCell ref="E5:H5"/>
+    <mergeCell ref="E6:I6"/>
+    <mergeCell ref="E10:I10"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{69A52EA6-8873-41D6-8A82-399A3D93F2DC}">
+  <dimension ref="A1:I28"/>
+  <sheetViews>
+    <sheetView topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="E34" sqref="E34"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="23.36328125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A1" s="60" t="s">
+        <v>120</v>
+      </c>
+      <c r="B1" s="61"/>
+      <c r="C1" s="61"/>
+      <c r="D1" s="61"/>
+      <c r="E1" s="61"/>
+      <c r="F1" s="61"/>
+      <c r="G1" s="61"/>
+      <c r="H1" s="61"/>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A2" s="61"/>
+      <c r="B2" s="61"/>
+      <c r="C2" s="61"/>
+      <c r="D2" s="61"/>
+      <c r="E2" s="61"/>
+      <c r="F2" s="61"/>
+      <c r="G2" s="61"/>
+      <c r="H2" s="61"/>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A3" s="61"/>
+      <c r="B3" s="61"/>
+      <c r="C3" s="61"/>
+      <c r="D3" s="61"/>
+      <c r="E3" s="61"/>
+      <c r="F3" s="61"/>
+      <c r="G3" s="61"/>
+      <c r="H3" s="61"/>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A4" s="61"/>
+      <c r="B4" s="61"/>
+      <c r="C4" s="61"/>
+      <c r="D4" s="61"/>
+      <c r="E4" s="61"/>
+      <c r="F4" s="61"/>
+      <c r="G4" s="61"/>
+      <c r="H4" s="61"/>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A5" s="61"/>
+      <c r="B5" s="61"/>
+      <c r="C5" s="61"/>
+      <c r="D5" s="61"/>
+      <c r="E5" s="61"/>
+      <c r="F5" s="61"/>
+      <c r="G5" s="61"/>
+      <c r="H5" s="61"/>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A6" s="61"/>
+      <c r="B6" s="61"/>
+      <c r="C6" s="61"/>
+      <c r="D6" s="61"/>
+      <c r="E6" s="61"/>
+      <c r="F6" s="61"/>
+      <c r="G6" s="61"/>
+      <c r="H6" s="61"/>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A7" s="61"/>
+      <c r="B7" s="61"/>
+      <c r="C7" s="61"/>
+      <c r="D7" s="61"/>
+      <c r="E7" s="61"/>
+      <c r="F7" s="61"/>
+      <c r="G7" s="61"/>
+      <c r="H7" s="61"/>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A8" s="61"/>
+      <c r="B8" s="61"/>
+      <c r="C8" s="61"/>
+      <c r="D8" s="61"/>
+      <c r="E8" s="61"/>
+      <c r="F8" s="61"/>
+      <c r="G8" s="61"/>
+      <c r="H8" s="61"/>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A10" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A11" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A12" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A14" s="64" t="s">
+        <v>124</v>
+      </c>
+      <c r="B14" s="64" t="s">
+        <v>125</v>
+      </c>
+      <c r="C14" s="64" t="s">
+        <v>126</v>
+      </c>
+      <c r="D14" s="64" t="s">
+        <v>127</v>
+      </c>
+      <c r="E14" s="64" t="s">
+        <v>128</v>
+      </c>
+      <c r="F14" s="64" t="s">
+        <v>129</v>
+      </c>
+      <c r="G14" s="64" t="s">
+        <v>130</v>
+      </c>
+      <c r="H14" s="64" t="s">
+        <v>131</v>
+      </c>
+      <c r="I14" s="64" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A15" s="63" t="s">
+        <v>137</v>
+      </c>
+      <c r="B15" s="63" t="s">
+        <v>132</v>
+      </c>
+      <c r="C15" s="65" t="s">
+        <v>132</v>
+      </c>
+      <c r="D15" s="63" t="s">
+        <v>132</v>
+      </c>
+      <c r="E15" s="65" t="s">
+        <v>132</v>
+      </c>
+      <c r="F15" s="63" t="s">
+        <v>133</v>
+      </c>
+      <c r="G15" s="65" t="s">
+        <v>133</v>
+      </c>
+      <c r="H15" s="63" t="s">
+        <v>133</v>
+      </c>
+      <c r="I15" s="65" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A16" s="63" t="s">
+        <v>138</v>
+      </c>
+      <c r="B16" s="63" t="s">
+        <v>132</v>
+      </c>
+      <c r="C16" s="65" t="s">
+        <v>132</v>
+      </c>
+      <c r="D16" s="63" t="s">
+        <v>133</v>
+      </c>
+      <c r="E16" s="65" t="s">
+        <v>133</v>
+      </c>
+      <c r="F16" s="63" t="s">
+        <v>132</v>
+      </c>
+      <c r="G16" s="65" t="s">
+        <v>132</v>
+      </c>
+      <c r="H16" s="63" t="s">
+        <v>133</v>
+      </c>
+      <c r="I16" s="65" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A17" s="63" t="s">
+        <v>139</v>
+      </c>
+      <c r="B17" s="63" t="s">
+        <v>132</v>
+      </c>
+      <c r="C17" s="65" t="s">
+        <v>133</v>
+      </c>
+      <c r="D17" s="63" t="s">
+        <v>132</v>
+      </c>
+      <c r="E17" s="65" t="s">
+        <v>133</v>
+      </c>
+      <c r="F17" s="63" t="s">
+        <v>132</v>
+      </c>
+      <c r="G17" s="65" t="s">
+        <v>133</v>
+      </c>
+      <c r="H17" s="63" t="s">
+        <v>132</v>
+      </c>
+      <c r="I17" s="65" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A18" s="64" t="s">
+        <v>134</v>
+      </c>
+      <c r="B18" s="64"/>
+      <c r="C18" s="64"/>
+      <c r="D18" s="64"/>
+      <c r="E18" s="64"/>
+      <c r="F18" s="64"/>
+      <c r="G18" s="64"/>
+      <c r="H18" s="64"/>
+      <c r="I18" s="64"/>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A19" s="63" t="s">
+        <v>143</v>
+      </c>
+      <c r="B19" s="63" t="s">
+        <v>135</v>
+      </c>
+      <c r="C19" s="63"/>
+      <c r="D19" s="63"/>
+      <c r="E19" s="63"/>
+      <c r="F19" s="63"/>
+      <c r="G19" s="63"/>
+      <c r="H19" s="63"/>
+      <c r="I19" s="63"/>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A20" s="63" t="s">
+        <v>142</v>
+      </c>
+      <c r="B20" s="63"/>
+      <c r="C20" s="62"/>
+      <c r="D20" s="63" t="s">
+        <v>135</v>
+      </c>
+      <c r="E20" s="62"/>
+      <c r="F20" s="63"/>
+      <c r="G20" s="62"/>
+      <c r="H20" s="63"/>
+      <c r="I20" s="62"/>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A21" s="63" t="s">
+        <v>141</v>
+      </c>
+      <c r="B21" s="63"/>
+      <c r="C21" s="63"/>
+      <c r="D21" s="63"/>
+      <c r="E21" s="63"/>
+      <c r="F21" s="63" t="s">
+        <v>135</v>
+      </c>
+      <c r="G21" s="63"/>
+      <c r="H21" s="63" t="s">
+        <v>135</v>
+      </c>
+      <c r="I21" s="63"/>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A22" s="63" t="s">
+        <v>140</v>
+      </c>
+      <c r="B22" s="63"/>
+      <c r="C22" s="63" t="s">
+        <v>135</v>
+      </c>
+      <c r="D22" s="62"/>
+      <c r="E22" s="63" t="s">
+        <v>135</v>
+      </c>
+      <c r="F22" s="63"/>
+      <c r="G22" s="63" t="s">
+        <v>135</v>
+      </c>
+      <c r="H22" s="63"/>
+      <c r="I22" s="63" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A24" s="66" t="s">
+        <v>144</v>
+      </c>
+      <c r="B24" s="66"/>
+      <c r="C24" s="66"/>
+      <c r="D24" s="66"/>
+      <c r="E24" s="66"/>
+      <c r="F24" s="66"/>
+      <c r="G24" s="66"/>
+      <c r="H24" s="66"/>
+    </row>
+    <row r="25" spans="1:9" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A25" s="66" t="s">
+        <v>145</v>
+      </c>
+      <c r="B25" s="66"/>
+      <c r="C25" s="66"/>
+      <c r="D25" s="66"/>
+      <c r="E25" s="66"/>
+      <c r="F25" s="66"/>
+      <c r="G25" s="66"/>
+    </row>
+    <row r="26" spans="1:9" ht="28" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A26" s="66"/>
+      <c r="B26" s="66"/>
+      <c r="C26" s="66"/>
+      <c r="D26" s="66"/>
+      <c r="E26" s="66"/>
+      <c r="F26" s="66"/>
+      <c r="G26" s="66"/>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A27" s="48" t="s">
+        <v>146</v>
+      </c>
+      <c r="B27" s="48"/>
+      <c r="C27" s="48"/>
+      <c r="D27" s="48"/>
+      <c r="E27" s="48"/>
+      <c r="F27" s="48"/>
+      <c r="G27" s="48"/>
+      <c r="H27" s="48"/>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A28" s="48"/>
+      <c r="B28" s="48"/>
+      <c r="C28" s="48"/>
+      <c r="D28" s="48"/>
+      <c r="E28" s="48"/>
+      <c r="F28" s="48"/>
+      <c r="G28" s="48"/>
+      <c r="H28" s="48"/>
+    </row>
+  </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="A1:H8"/>
+    <mergeCell ref="A24:H24"/>
+    <mergeCell ref="A25:G26"/>
+    <mergeCell ref="A27:H28"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7A955963-EA6B-42EC-8DAD-4378D054E7CA}">
+  <dimension ref="A1:K14"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B15" sqref="B15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData>
+    <row r="1" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A1" s="67" t="s">
+        <v>147</v>
+      </c>
+      <c r="B1" s="67"/>
+      <c r="C1" s="67"/>
+      <c r="D1" s="67"/>
+      <c r="E1" s="67"/>
+      <c r="F1" s="67"/>
+      <c r="G1" s="67"/>
+      <c r="H1" s="67"/>
+      <c r="I1" s="67"/>
+      <c r="J1" s="67"/>
+      <c r="K1" s="67"/>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A2" s="67"/>
+      <c r="B2" s="67"/>
+      <c r="C2" s="67"/>
+      <c r="D2" s="67"/>
+      <c r="E2" s="67"/>
+      <c r="F2" s="67"/>
+      <c r="G2" s="67"/>
+      <c r="H2" s="67"/>
+      <c r="I2" s="67"/>
+      <c r="J2" s="67"/>
+      <c r="K2" s="67"/>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A3" s="67"/>
+      <c r="B3" s="67"/>
+      <c r="C3" s="67"/>
+      <c r="D3" s="67"/>
+      <c r="E3" s="67"/>
+      <c r="F3" s="67"/>
+      <c r="G3" s="67"/>
+      <c r="H3" s="67"/>
+      <c r="I3" s="67"/>
+      <c r="J3" s="67"/>
+      <c r="K3" s="67"/>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A4" s="67"/>
+      <c r="B4" s="67"/>
+      <c r="C4" s="67"/>
+      <c r="D4" s="67"/>
+      <c r="E4" s="67"/>
+      <c r="F4" s="67"/>
+      <c r="G4" s="67"/>
+      <c r="H4" s="67"/>
+      <c r="I4" s="67"/>
+      <c r="J4" s="67"/>
+      <c r="K4" s="67"/>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A5" s="67"/>
+      <c r="B5" s="67"/>
+      <c r="C5" s="67"/>
+      <c r="D5" s="67"/>
+      <c r="E5" s="67"/>
+      <c r="F5" s="67"/>
+      <c r="G5" s="67"/>
+      <c r="H5" s="67"/>
+      <c r="I5" s="67"/>
+      <c r="J5" s="67"/>
+      <c r="K5" s="67"/>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A6" s="67"/>
+      <c r="B6" s="67"/>
+      <c r="C6" s="67"/>
+      <c r="D6" s="67"/>
+      <c r="E6" s="67"/>
+      <c r="F6" s="67"/>
+      <c r="G6" s="67"/>
+      <c r="H6" s="67"/>
+      <c r="I6" s="67"/>
+      <c r="J6" s="67"/>
+      <c r="K6" s="67"/>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A7" s="67"/>
+      <c r="B7" s="67"/>
+      <c r="C7" s="67"/>
+      <c r="D7" s="67"/>
+      <c r="E7" s="67"/>
+      <c r="F7" s="67"/>
+      <c r="G7" s="67"/>
+      <c r="H7" s="67"/>
+      <c r="I7" s="67"/>
+      <c r="J7" s="67"/>
+      <c r="K7" s="67"/>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A9" s="47" t="s">
+        <v>148</v>
+      </c>
+      <c r="B9" s="47"/>
+      <c r="C9" s="47"/>
+      <c r="D9" s="47"/>
+      <c r="E9" s="47"/>
+      <c r="F9" s="47"/>
+      <c r="G9" s="47"/>
+      <c r="H9" s="47"/>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A10" s="48" t="s">
+        <v>149</v>
+      </c>
+      <c r="B10" s="48"/>
+      <c r="C10" s="48"/>
+      <c r="D10" s="48"/>
+      <c r="E10" s="48"/>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A11" s="69" t="s">
+        <v>152</v>
+      </c>
+      <c r="B11" s="61"/>
+      <c r="C11" s="61"/>
+      <c r="D11" s="61"/>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A12" s="48" t="s">
+        <v>150</v>
+      </c>
+      <c r="B12" s="48"/>
+      <c r="C12" s="48"/>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A13" s="61" t="s">
+        <v>151</v>
+      </c>
+      <c r="B13" s="61"/>
+      <c r="C13" s="61"/>
+      <c r="D13" s="61"/>
+      <c r="E13" s="61"/>
+      <c r="F13" s="68"/>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A14" s="69" t="s">
+        <v>152</v>
+      </c>
+      <c r="B14" s="69"/>
+      <c r="C14" s="69"/>
+      <c r="D14" s="69"/>
+    </row>
+  </sheetData>
+  <mergeCells count="7">
+    <mergeCell ref="A13:E13"/>
+    <mergeCell ref="A11:D11"/>
+    <mergeCell ref="A14:D14"/>
+    <mergeCell ref="A1:K7"/>
+    <mergeCell ref="A9:H9"/>
+    <mergeCell ref="A10:E10"/>
+    <mergeCell ref="A12:C12"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
